--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_14_16.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_14_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1079946.559131908</v>
+        <v>-1080744.926569725</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>590120.9651681855</v>
+        <v>590120.9651681859</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>261.6938579839128</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>244.9625436714604</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>141.8192292557993</v>
+        <v>249.7075152099869</v>
       </c>
       <c r="F11" t="n">
         <v>285.2713114730586</v>
       </c>
       <c r="G11" t="n">
-        <v>292.306137003043</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>210.7336715177292</v>
+        <v>210.7336715177291</v>
       </c>
       <c r="I11" t="n">
-        <v>62.92019570772391</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>71.85443390360344</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>98.63966577724243</v>
+        <v>98.6396657772424</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>129.4131254575977</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>206.5106695150371</v>
       </c>
       <c r="W11" t="n">
         <v>228.5075649930723</v>
@@ -1449,22 +1449,22 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C12" t="n">
-        <v>49.00303191991874</v>
+        <v>49.00303191991873</v>
       </c>
       <c r="D12" t="n">
-        <v>24.08987156716331</v>
+        <v>24.0898715671633</v>
       </c>
       <c r="E12" t="n">
-        <v>34.01088169969158</v>
+        <v>34.01088169969157</v>
       </c>
       <c r="F12" t="n">
-        <v>143.5062320835493</v>
+        <v>21.48368007606703</v>
       </c>
       <c r="G12" t="n">
         <v>135.7417345196995</v>
       </c>
       <c r="H12" t="n">
-        <v>82.45293721024207</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>76.81238500081962</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>77.21879642024862</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>41.71077449716833</v>
+        <v>163.7333265046506</v>
       </c>
       <c r="T12" t="n">
-        <v>75.22543536205838</v>
+        <v>197.2479873695406</v>
       </c>
       <c r="U12" t="n">
         <v>224.6386589300076</v>
       </c>
       <c r="V12" t="n">
-        <v>231.9087310396551</v>
+        <v>109.8861790321729</v>
       </c>
       <c r="W12" t="n">
-        <v>127.9667947425178</v>
+        <v>165.6159763655265</v>
       </c>
       <c r="X12" t="n">
-        <v>82.43907760099601</v>
+        <v>82.439077600996</v>
       </c>
       <c r="Y12" t="n">
-        <v>81.64859941110377</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>58.06113948320156</v>
+        <v>58.06113948320154</v>
       </c>
       <c r="C13" t="n">
-        <v>45.31400092372009</v>
+        <v>45.31400092372007</v>
       </c>
       <c r="D13" t="n">
-        <v>26.98301450703711</v>
+        <v>26.9830145070371</v>
       </c>
       <c r="E13" t="n">
-        <v>24.95207216571693</v>
+        <v>24.95207216571691</v>
       </c>
       <c r="F13" t="n">
-        <v>24.13646940232225</v>
+        <v>24.13646940232223</v>
       </c>
       <c r="G13" t="n">
-        <v>45.63105716341553</v>
+        <v>45.63105716341552</v>
       </c>
       <c r="H13" t="n">
-        <v>37.51344541500136</v>
+        <v>37.51344541500135</v>
       </c>
       <c r="I13" t="n">
-        <v>24.63943984930676</v>
+        <v>20.51115563718871</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>40.75808757999054</v>
+        <v>40.75808757999052</v>
       </c>
       <c r="S13" t="n">
-        <v>96.22237133206657</v>
+        <v>96.22237133206656</v>
       </c>
       <c r="T13" t="n">
         <v>105.301636831036</v>
@@ -1594,7 +1594,7 @@
         <v>104.117807924827</v>
       </c>
       <c r="Y13" t="n">
-        <v>92.59783764816795</v>
+        <v>96.72612186028596</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>82.50051553115333</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>244.9625436714604</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>234.5821807471161</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>261.0954837478052</v>
       </c>
       <c r="F14" t="n">
-        <v>285.2713114730585</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>292.3061370030429</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>210.7336715177291</v>
       </c>
       <c r="I14" t="n">
-        <v>62.92019570772385</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>3.144207437443493</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>98.6396657772424</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>129.4131254575977</v>
       </c>
       <c r="V14" t="n">
-        <v>206.510669515037</v>
+        <v>206.5106695150371</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>248.8390471236871</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>264.6645197437535</v>
@@ -1683,28 +1683,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>165.3721256103448</v>
+        <v>43.34957360286256</v>
       </c>
       <c r="C15" t="n">
-        <v>131.4559691301613</v>
+        <v>49.00303191991873</v>
       </c>
       <c r="D15" t="n">
-        <v>24.08987156716324</v>
+        <v>24.0898715671633</v>
       </c>
       <c r="E15" t="n">
-        <v>34.01088169969151</v>
+        <v>34.01088169969157</v>
       </c>
       <c r="F15" t="n">
-        <v>21.48368007606697</v>
+        <v>21.48368007606703</v>
       </c>
       <c r="G15" t="n">
-        <v>13.71918251221724</v>
+        <v>13.7191825122173</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>107.7440529821119</v>
       </c>
       <c r="I15" t="n">
-        <v>76.81238500081962</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,22 +1734,22 @@
         <v>77.21879642024862</v>
       </c>
       <c r="S15" t="n">
-        <v>163.7333265046506</v>
+        <v>93.23204372611845</v>
       </c>
       <c r="T15" t="n">
         <v>197.2479873695406</v>
       </c>
       <c r="U15" t="n">
-        <v>224.6386589300076</v>
+        <v>102.6161069225253</v>
       </c>
       <c r="V15" t="n">
-        <v>109.8861790321728</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W15" t="n">
-        <v>127.9667947425177</v>
+        <v>249.98934675</v>
       </c>
       <c r="X15" t="n">
-        <v>82.43907760099594</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y15" t="n">
         <v>203.671151418586</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>58.06113948320149</v>
+        <v>58.06113948320154</v>
       </c>
       <c r="C16" t="n">
-        <v>45.31400092372002</v>
+        <v>45.31400092372007</v>
       </c>
       <c r="D16" t="n">
-        <v>26.98301450703704</v>
+        <v>26.9830145070371</v>
       </c>
       <c r="E16" t="n">
-        <v>24.95207216571686</v>
+        <v>24.95207216571691</v>
       </c>
       <c r="F16" t="n">
-        <v>24.13646940232218</v>
+        <v>24.13646940232223</v>
       </c>
       <c r="G16" t="n">
-        <v>45.63105716341546</v>
+        <v>45.63105716341552</v>
       </c>
       <c r="H16" t="n">
-        <v>37.51344541500129</v>
+        <v>37.51344541500135</v>
       </c>
       <c r="I16" t="n">
-        <v>24.63943984930669</v>
+        <v>20.51115563718871</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>40.75808757999046</v>
+        <v>40.75808757999052</v>
       </c>
       <c r="S16" t="n">
-        <v>96.2223713320665</v>
+        <v>96.22237133206656</v>
       </c>
       <c r="T16" t="n">
-        <v>101.173352618919</v>
+        <v>105.301636831036</v>
       </c>
       <c r="U16" t="n">
-        <v>164.0168467603522</v>
+        <v>164.0168467603523</v>
       </c>
       <c r="V16" t="n">
-        <v>130.9137990594568</v>
+        <v>130.9137990594569</v>
       </c>
       <c r="W16" t="n">
-        <v>164.0700248799332</v>
+        <v>164.0700248799333</v>
       </c>
       <c r="X16" t="n">
-        <v>104.1178079248269</v>
+        <v>104.117807924827</v>
       </c>
       <c r="Y16" t="n">
-        <v>96.7261218602859</v>
+        <v>96.72612186028596</v>
       </c>
     </row>
     <row r="17">
@@ -1850,7 +1850,7 @@
         <v>133.3460103002755</v>
       </c>
       <c r="E17" t="n">
-        <v>159.8593133009645</v>
+        <v>159.859313300965</v>
       </c>
       <c r="F17" t="n">
         <v>184.0351410262179</v>
@@ -1898,16 +1898,16 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>28.17695501075707</v>
+        <v>28.17695501075703</v>
       </c>
       <c r="V17" t="n">
         <v>105.2744990681964</v>
       </c>
       <c r="W17" t="n">
-        <v>127.2713945462317</v>
+        <v>127.2713945462316</v>
       </c>
       <c r="X17" t="n">
-        <v>147.6028766768465</v>
+        <v>147.6028766768464</v>
       </c>
       <c r="Y17" t="n">
         <v>163.4283492969129</v>
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C18" t="n">
         <v>171.025583927401</v>
@@ -1929,7 +1929,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1938,10 +1938,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>107.7440529821119</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>76.81238500081962</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>77.21879642024862</v>
       </c>
       <c r="S18" t="n">
-        <v>163.7333265046506</v>
+        <v>151.4707789952457</v>
       </c>
       <c r="T18" t="n">
         <v>197.2479873695406</v>
@@ -1980,16 +1980,16 @@
         <v>224.6386589300076</v>
       </c>
       <c r="V18" t="n">
-        <v>231.9087310396551</v>
+        <v>8.650008585332188</v>
       </c>
       <c r="W18" t="n">
-        <v>42.92148212509758</v>
+        <v>249.98934675</v>
       </c>
       <c r="X18" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="19">
@@ -2053,19 +2053,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>4.065466384195374</v>
+        <v>199.8266189983873</v>
       </c>
       <c r="U19" t="n">
-        <v>62.78067631351166</v>
+        <v>62.78067631351163</v>
       </c>
       <c r="V19" t="n">
-        <v>225.438781226808</v>
+        <v>29.67762861261622</v>
       </c>
       <c r="W19" t="n">
-        <v>62.83385443309263</v>
+        <v>62.8338544330926</v>
       </c>
       <c r="X19" t="n">
-        <v>2.881637477986345</v>
+        <v>2.881637477986317</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2135,16 +2135,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>28.17695501075707</v>
+        <v>28.17695501075704</v>
       </c>
       <c r="V20" t="n">
         <v>105.2744990681964</v>
       </c>
       <c r="W20" t="n">
-        <v>127.2713945462317</v>
+        <v>127.2713945462316</v>
       </c>
       <c r="X20" t="n">
-        <v>147.6028766768465</v>
+        <v>147.6028766768464</v>
       </c>
       <c r="Y20" t="n">
         <v>163.4283492969129</v>
@@ -2157,13 +2157,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C21" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>56.07012805263148</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>107.7440529821119</v>
       </c>
       <c r="I21" t="n">
-        <v>76.81238500081962</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>77.21879642024862</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>163.7333265046506</v>
@@ -2214,13 +2214,13 @@
         <v>197.2479873695406</v>
       </c>
       <c r="U21" t="n">
-        <v>1.379936475684708</v>
+        <v>224.6386589300076</v>
       </c>
       <c r="V21" t="n">
-        <v>231.9087310396551</v>
+        <v>8.650008585332188</v>
       </c>
       <c r="W21" t="n">
-        <v>26.73062429567713</v>
+        <v>242.4853920864334</v>
       </c>
       <c r="X21" t="n">
         <v>204.4616296084783</v>
@@ -2290,22 +2290,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>4.065466384195374</v>
+        <v>4.065466384195346</v>
       </c>
       <c r="U22" t="n">
-        <v>62.78067631351166</v>
+        <v>62.78067631351163</v>
       </c>
       <c r="V22" t="n">
-        <v>29.67762861261625</v>
+        <v>225.438781226808</v>
       </c>
       <c r="W22" t="n">
-        <v>62.83385443309263</v>
+        <v>62.8338544330926</v>
       </c>
       <c r="X22" t="n">
-        <v>2.881637477986345</v>
+        <v>2.881637477986317</v>
       </c>
       <c r="Y22" t="n">
-        <v>195.7611526141918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2372,16 +2372,16 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>28.17695501075707</v>
+        <v>28.17695501075704</v>
       </c>
       <c r="V23" t="n">
         <v>105.2744990681964</v>
       </c>
       <c r="W23" t="n">
-        <v>127.2713945462317</v>
+        <v>127.2713945462316</v>
       </c>
       <c r="X23" t="n">
-        <v>147.6028766768465</v>
+        <v>147.6028766768464</v>
       </c>
       <c r="Y23" t="n">
         <v>163.4283492969129</v>
@@ -2400,13 +2400,13 @@
         <v>171.025583927401</v>
       </c>
       <c r="D24" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G24" t="n">
         <v>135.7417345196995</v>
@@ -2415,7 +2415,7 @@
         <v>107.7440529821119</v>
       </c>
       <c r="I24" t="n">
-        <v>34.40780719021765</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,28 +2442,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>77.21879642024862</v>
+        <v>40.58434230536802</v>
       </c>
       <c r="S24" t="n">
         <v>163.7333265046506</v>
       </c>
       <c r="T24" t="n">
-        <v>197.2479873695406</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>224.6386589300076</v>
       </c>
       <c r="V24" t="n">
-        <v>8.650008585332216</v>
+        <v>8.650008585332188</v>
       </c>
       <c r="W24" t="n">
-        <v>26.73062429567713</v>
+        <v>249.98934675</v>
       </c>
       <c r="X24" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="25">
@@ -2521,25 +2521,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>162.7806395874728</v>
       </c>
       <c r="S25" t="n">
-        <v>195.7611526141918</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>4.065466384195374</v>
+        <v>4.065466384195346</v>
       </c>
       <c r="U25" t="n">
-        <v>62.78067631351166</v>
+        <v>62.78067631351163</v>
       </c>
       <c r="V25" t="n">
-        <v>29.67762861261625</v>
+        <v>62.65814163933528</v>
       </c>
       <c r="W25" t="n">
-        <v>62.83385443309263</v>
+        <v>62.8338544330926</v>
       </c>
       <c r="X25" t="n">
-        <v>2.881637477986345</v>
+        <v>2.881637477986317</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>241.6048153723324</v>
+        <v>241.6048153723325</v>
       </c>
       <c r="C26" t="n">
-        <v>224.87350105988</v>
+        <v>224.8735010598801</v>
       </c>
       <c r="D26" t="n">
         <v>214.4931381355358</v>
@@ -2564,16 +2564,16 @@
         <v>241.0064411362249</v>
       </c>
       <c r="F26" t="n">
-        <v>265.1822688614782</v>
+        <v>265.1822688614783</v>
       </c>
       <c r="G26" t="n">
-        <v>272.2170943914626</v>
+        <v>272.2170943914627</v>
       </c>
       <c r="H26" t="n">
-        <v>190.6446289061488</v>
+        <v>190.6446289061489</v>
       </c>
       <c r="I26" t="n">
-        <v>42.83115309614357</v>
+        <v>42.83115309614359</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,16 +2603,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>51.76539129202308</v>
+        <v>51.76539129202311</v>
       </c>
       <c r="T26" t="n">
-        <v>78.55062316566207</v>
+        <v>78.55062316566209</v>
       </c>
       <c r="U26" t="n">
         <v>109.3240828460174</v>
       </c>
       <c r="V26" t="n">
-        <v>186.4216269034567</v>
+        <v>186.4216269034568</v>
       </c>
       <c r="W26" t="n">
         <v>208.418522381492</v>
@@ -2631,10 +2631,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>139.171163257144</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C27" t="n">
-        <v>171.025583927401</v>
+        <v>28.91398930833842</v>
       </c>
       <c r="D27" t="n">
         <v>146.1124235746456</v>
@@ -2649,10 +2649,10 @@
         <v>135.7417345196995</v>
       </c>
       <c r="H27" t="n">
-        <v>107.7440529821119</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>76.81238500081962</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,22 +2682,22 @@
         <v>77.21879642024862</v>
       </c>
       <c r="S27" t="n">
-        <v>21.62173188558798</v>
+        <v>163.7333265046506</v>
       </c>
       <c r="T27" t="n">
-        <v>55.13639275047802</v>
+        <v>55.13639275047805</v>
       </c>
       <c r="U27" t="n">
-        <v>82.52706431094501</v>
+        <v>224.6386589300076</v>
       </c>
       <c r="V27" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W27" t="n">
-        <v>107.8777521309374</v>
+        <v>249.98934675</v>
       </c>
       <c r="X27" t="n">
-        <v>204.4616296084783</v>
+        <v>78.59391600008378</v>
       </c>
       <c r="Y27" t="n">
         <v>203.671151418586</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>37.9720968716212</v>
+        <v>37.97209687162123</v>
       </c>
       <c r="C28" t="n">
-        <v>25.22495831213973</v>
+        <v>25.22495831213976</v>
       </c>
       <c r="D28" t="n">
-        <v>6.893971895456758</v>
+        <v>6.893971895456787</v>
       </c>
       <c r="E28" t="n">
-        <v>4.863029554136574</v>
+        <v>4.863029554136602</v>
       </c>
       <c r="F28" t="n">
-        <v>4.047426790741895</v>
+        <v>4.047426790741923</v>
       </c>
       <c r="G28" t="n">
-        <v>25.54201455183518</v>
+        <v>25.54201455183521</v>
       </c>
       <c r="H28" t="n">
-        <v>17.42440280342101</v>
+        <v>17.42440280342104</v>
       </c>
       <c r="I28" t="n">
-        <v>4.550397237726404</v>
+        <v>4.550397237726434</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>20.66904496841018</v>
+        <v>20.66904496841021</v>
       </c>
       <c r="S28" t="n">
-        <v>76.13332872048622</v>
+        <v>76.13332872048625</v>
       </c>
       <c r="T28" t="n">
-        <v>85.21259421945568</v>
+        <v>85.21259421945571</v>
       </c>
       <c r="U28" t="n">
         <v>143.927804148772</v>
@@ -2773,13 +2773,13 @@
         <v>110.8247564478766</v>
       </c>
       <c r="W28" t="n">
-        <v>143.9809822683529</v>
+        <v>143.980982268353</v>
       </c>
       <c r="X28" t="n">
-        <v>84.02876531324665</v>
+        <v>84.02876531324668</v>
       </c>
       <c r="Y28" t="n">
-        <v>76.63707924870562</v>
+        <v>76.63707924870565</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>190.6446289061488</v>
       </c>
       <c r="I29" t="n">
-        <v>42.83115309614358</v>
+        <v>42.83115309614359</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>51.76539129202311</v>
       </c>
       <c r="T29" t="n">
-        <v>78.55062316566209</v>
+        <v>78.5506231656621</v>
       </c>
       <c r="U29" t="n">
         <v>109.3240828460174</v>
@@ -2877,19 +2877,19 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E30" t="n">
-        <v>156.0334337071738</v>
+        <v>13.92183908811126</v>
       </c>
       <c r="F30" t="n">
-        <v>143.5062320835493</v>
+        <v>1.394637464486721</v>
       </c>
       <c r="G30" t="n">
         <v>135.7417345196995</v>
       </c>
       <c r="H30" t="n">
-        <v>107.7440529821119</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>76.81238500081962</v>
+        <v>16.2438810106681</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,16 +2916,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>77.21879642024862</v>
       </c>
       <c r="S30" t="n">
         <v>163.7333265046506</v>
       </c>
       <c r="T30" t="n">
-        <v>55.13639275047805</v>
+        <v>197.2479873695406</v>
       </c>
       <c r="U30" t="n">
-        <v>82.52706431094504</v>
+        <v>224.6386589300076</v>
       </c>
       <c r="V30" t="n">
         <v>231.9087310396551</v>
@@ -2934,7 +2934,7 @@
         <v>249.98934675</v>
       </c>
       <c r="X30" t="n">
-        <v>113.3678690564636</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y30" t="n">
         <v>203.671151418586</v>
@@ -2968,7 +2968,7 @@
         <v>17.42440280342104</v>
       </c>
       <c r="I31" t="n">
-        <v>4.550397237726433</v>
+        <v>4.550397237726434</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3035,7 +3035,7 @@
         <v>214.4931381355358</v>
       </c>
       <c r="E32" t="n">
-        <v>241.0064411362249</v>
+        <v>241.0064411362248</v>
       </c>
       <c r="F32" t="n">
         <v>265.1822688614782</v>
@@ -3047,7 +3047,7 @@
         <v>190.6446289061488</v>
       </c>
       <c r="I32" t="n">
-        <v>42.83115309614357</v>
+        <v>42.83115309614354</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>51.76539129202308</v>
+        <v>51.76539129202305</v>
       </c>
       <c r="T32" t="n">
-        <v>78.55062316566207</v>
+        <v>78.55062316566205</v>
       </c>
       <c r="U32" t="n">
-        <v>109.3240828460174</v>
+        <v>109.3240828460173</v>
       </c>
       <c r="V32" t="n">
         <v>186.4216269034567</v>
@@ -3105,25 +3105,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>165.3721256103448</v>
+        <v>39.50441200195046</v>
       </c>
       <c r="C33" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D33" t="n">
-        <v>146.1124235746456</v>
+        <v>4.000828955582932</v>
       </c>
       <c r="E33" t="n">
         <v>156.0334337071738</v>
       </c>
       <c r="F33" t="n">
-        <v>143.5062320835493</v>
+        <v>1.394637464486664</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>135.7417345196995</v>
       </c>
       <c r="H33" t="n">
-        <v>9.874020911304859</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3156,7 +3156,7 @@
         <v>77.21879642024862</v>
       </c>
       <c r="S33" t="n">
-        <v>21.62173188558798</v>
+        <v>163.7333265046506</v>
       </c>
       <c r="T33" t="n">
         <v>197.2479873695406</v>
@@ -3168,7 +3168,7 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W33" t="n">
-        <v>107.8777521309374</v>
+        <v>249.98934675</v>
       </c>
       <c r="X33" t="n">
         <v>204.4616296084783</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>37.9720968716212</v>
+        <v>37.97209687162118</v>
       </c>
       <c r="C34" t="n">
-        <v>25.22495831213973</v>
+        <v>25.22495831213971</v>
       </c>
       <c r="D34" t="n">
-        <v>6.893971895456758</v>
+        <v>6.89397189545673</v>
       </c>
       <c r="E34" t="n">
-        <v>4.863029554136574</v>
+        <v>4.863029554136546</v>
       </c>
       <c r="F34" t="n">
-        <v>4.047426790741895</v>
+        <v>4.047426790741866</v>
       </c>
       <c r="G34" t="n">
-        <v>25.54201455183518</v>
+        <v>25.54201455183515</v>
       </c>
       <c r="H34" t="n">
-        <v>17.42440280342101</v>
+        <v>17.42440280342098</v>
       </c>
       <c r="I34" t="n">
-        <v>4.550397237726404</v>
+        <v>4.550397237726377</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>20.66904496841018</v>
+        <v>20.66904496841016</v>
       </c>
       <c r="S34" t="n">
-        <v>76.13332872048622</v>
+        <v>76.13332872048619</v>
       </c>
       <c r="T34" t="n">
-        <v>85.21259421945568</v>
+        <v>85.21259421945565</v>
       </c>
       <c r="U34" t="n">
-        <v>143.927804148772</v>
+        <v>143.9278041487719</v>
       </c>
       <c r="V34" t="n">
-        <v>110.8247564478766</v>
+        <v>110.8247564478765</v>
       </c>
       <c r="W34" t="n">
         <v>143.9809822683529</v>
       </c>
       <c r="X34" t="n">
-        <v>84.02876531324665</v>
+        <v>84.02876531324662</v>
       </c>
       <c r="Y34" t="n">
-        <v>76.63707924870562</v>
+        <v>76.63707924870559</v>
       </c>
     </row>
     <row r="35">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C36" t="n">
         <v>171.025583927401</v>
@@ -3351,13 +3351,13 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E36" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>135.7417345196995</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3393,25 +3393,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>163.7333265046506</v>
       </c>
       <c r="T36" t="n">
         <v>197.2479873695406</v>
       </c>
       <c r="U36" t="n">
-        <v>224.6386589300076</v>
+        <v>3.976441145282941</v>
       </c>
       <c r="V36" t="n">
-        <v>231.9087310396551</v>
+        <v>179.3141077414336</v>
       </c>
       <c r="W36" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y36" t="n">
-        <v>172.2062238322401</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="37">
@@ -3424,7 +3424,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3466,16 +3466,16 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>60.00061294779459</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>122.778016318406</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>22.10404738879187</v>
+        <v>6.661971053793606</v>
       </c>
       <c r="U37" t="n">
         <v>65.37718098310988</v>
@@ -3579,10 +3579,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>165.3721256103448</v>
+        <v>139.1856971258254</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D39" t="n">
         <v>146.1124235746456</v>
@@ -3591,13 +3591,13 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F39" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>135.7417345196995</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>107.7440529821119</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3627,28 +3627,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>77.21879642024862</v>
       </c>
       <c r="S39" t="n">
-        <v>163.7333265046506</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>197.2479873695406</v>
       </c>
       <c r="U39" t="n">
-        <v>224.6386589300076</v>
+        <v>3.976441145282941</v>
       </c>
       <c r="V39" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W39" t="n">
-        <v>29.32712896527536</v>
+        <v>249.98934675</v>
       </c>
       <c r="X39" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y39" t="n">
-        <v>84.0686991068832</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>182.7786292662006</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>6.661971053793606</v>
@@ -3718,7 +3718,7 @@
         <v>65.37718098310988</v>
       </c>
       <c r="V40" t="n">
-        <v>32.27413328221448</v>
+        <v>215.052762548415</v>
       </c>
       <c r="W40" t="n">
         <v>65.43035910269086</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>189.8394240803094</v>
+        <v>189.8394240803093</v>
       </c>
       <c r="C41" t="n">
         <v>173.1081097678569</v>
@@ -3746,13 +3746,13 @@
         <v>162.7277468435127</v>
       </c>
       <c r="E41" t="n">
-        <v>189.2410498442018</v>
+        <v>189.2410498442017</v>
       </c>
       <c r="F41" t="n">
-        <v>213.4168775694552</v>
+        <v>213.4168775694551</v>
       </c>
       <c r="G41" t="n">
-        <v>220.4517030994396</v>
+        <v>220.4517030994395</v>
       </c>
       <c r="H41" t="n">
         <v>138.8792376141257</v>
@@ -3791,13 +3791,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>26.78523187363899</v>
+        <v>26.78523187363896</v>
       </c>
       <c r="U41" t="n">
-        <v>57.55869155399429</v>
+        <v>57.55869155399427</v>
       </c>
       <c r="V41" t="n">
-        <v>134.6562356114337</v>
+        <v>134.6562356114336</v>
       </c>
       <c r="W41" t="n">
         <v>156.6531310894689</v>
@@ -3819,13 +3819,13 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C42" t="n">
-        <v>102.31626483564</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3837,7 +3837,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>76.81238500081962</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3885,7 +3885,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y42" t="n">
-        <v>203.671151418586</v>
+        <v>80.65394397322537</v>
       </c>
     </row>
     <row r="43">
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>24.36793742846314</v>
+        <v>24.36793742846311</v>
       </c>
       <c r="T43" t="n">
-        <v>33.4472029274326</v>
+        <v>33.44720292743257</v>
       </c>
       <c r="U43" t="n">
-        <v>92.16241285674887</v>
+        <v>92.16241285674884</v>
       </c>
       <c r="V43" t="n">
-        <v>59.05936515585347</v>
+        <v>59.05936515585344</v>
       </c>
       <c r="W43" t="n">
-        <v>92.21559097632985</v>
+        <v>92.21559097632982</v>
       </c>
       <c r="X43" t="n">
-        <v>32.26337402122357</v>
+        <v>32.26337402122354</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.87168795668254</v>
+        <v>24.87168795668251</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>189.8394240803094</v>
+        <v>189.8394240803093</v>
       </c>
       <c r="C44" t="n">
-        <v>173.108109767857</v>
+        <v>173.1081097678569</v>
       </c>
       <c r="D44" t="n">
-        <v>162.7277468435128</v>
+        <v>162.7277468435127</v>
       </c>
       <c r="E44" t="n">
-        <v>189.2410498442018</v>
+        <v>189.2410498442017</v>
       </c>
       <c r="F44" t="n">
-        <v>213.4168775694552</v>
+        <v>213.4168775694551</v>
       </c>
       <c r="G44" t="n">
-        <v>220.4517030994396</v>
+        <v>220.4517030994395</v>
       </c>
       <c r="H44" t="n">
-        <v>138.8792376141258</v>
+        <v>138.8792376141257</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,22 +4028,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>26.78523187363904</v>
+        <v>26.78523187363896</v>
       </c>
       <c r="U44" t="n">
-        <v>57.55869155399434</v>
+        <v>57.55869155399425</v>
       </c>
       <c r="V44" t="n">
-        <v>134.6562356114337</v>
+        <v>134.6562356114336</v>
       </c>
       <c r="W44" t="n">
-        <v>156.653131089469</v>
+        <v>156.6531310894689</v>
       </c>
       <c r="X44" t="n">
-        <v>176.9846132200838</v>
+        <v>176.9846132200837</v>
       </c>
       <c r="Y44" t="n">
-        <v>192.8100858401502</v>
+        <v>192.8100858401501</v>
       </c>
     </row>
     <row r="45">
@@ -4062,16 +4062,16 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E45" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>143.5062320835493</v>
+        <v>55.86762824549783</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>135.7417345196995</v>
       </c>
       <c r="H45" t="n">
-        <v>107.7440529821119</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,16 +4104,16 @@
         <v>77.21879642024862</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>163.7333265046506</v>
       </c>
       <c r="T45" t="n">
-        <v>3.371001458454995</v>
+        <v>197.2479873695406</v>
       </c>
       <c r="U45" t="n">
         <v>224.6386589300076</v>
       </c>
       <c r="V45" t="n">
-        <v>231.9087310396551</v>
+        <v>38.03174512856941</v>
       </c>
       <c r="W45" t="n">
         <v>249.98934675</v>
@@ -4122,7 +4122,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y45" t="n">
-        <v>151.7301219155996</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="46">
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>24.36793742846319</v>
+        <v>24.36793742846311</v>
       </c>
       <c r="T46" t="n">
-        <v>33.44720292743266</v>
+        <v>33.44720292743257</v>
       </c>
       <c r="U46" t="n">
-        <v>92.16241285674893</v>
+        <v>92.16241285674884</v>
       </c>
       <c r="V46" t="n">
-        <v>59.05936515585353</v>
+        <v>59.05936515585344</v>
       </c>
       <c r="W46" t="n">
-        <v>92.21559097632991</v>
+        <v>92.21559097632982</v>
       </c>
       <c r="X46" t="n">
-        <v>32.26337402122363</v>
+        <v>32.26337402122354</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.87168795668259</v>
+        <v>24.87168795668251</v>
       </c>
     </row>
   </sheetData>
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1037.172186570306</v>
+        <v>1034.772688504529</v>
       </c>
       <c r="C11" t="n">
-        <v>1037.172186570306</v>
+        <v>787.3357757050742</v>
       </c>
       <c r="D11" t="n">
-        <v>1037.172186570306</v>
+        <v>787.3357757050742</v>
       </c>
       <c r="E11" t="n">
-        <v>893.9204398472762</v>
+        <v>535.1059623616529</v>
       </c>
       <c r="F11" t="n">
-        <v>605.7675999754997</v>
+        <v>246.9531224898766</v>
       </c>
       <c r="G11" t="n">
-        <v>310.5088757300018</v>
+        <v>246.9531224898766</v>
       </c>
       <c r="H11" t="n">
-        <v>97.64658126764908</v>
+        <v>34.09082802752391</v>
       </c>
       <c r="I11" t="n">
         <v>34.09082802752391</v>
@@ -5042,10 +5042,10 @@
         <v>77.64171918777333</v>
       </c>
       <c r="K11" t="n">
-        <v>265.1898083646869</v>
+        <v>265.189808364687</v>
       </c>
       <c r="L11" t="n">
-        <v>549.8288752482731</v>
+        <v>549.8288752482733</v>
       </c>
       <c r="M11" t="n">
         <v>881.756975090947</v>
@@ -5066,25 +5066,25 @@
         <v>1704.541401376196</v>
       </c>
       <c r="S11" t="n">
-        <v>1631.961165109929</v>
+        <v>1704.541401376196</v>
       </c>
       <c r="T11" t="n">
-        <v>1532.325139072311</v>
+        <v>1604.905375338577</v>
       </c>
       <c r="U11" t="n">
-        <v>1532.325139072311</v>
+        <v>1474.185046593529</v>
       </c>
       <c r="V11" t="n">
-        <v>1532.325139072311</v>
+        <v>1265.588410719754</v>
       </c>
       <c r="W11" t="n">
-        <v>1301.509416857086</v>
+        <v>1034.772688504529</v>
       </c>
       <c r="X11" t="n">
-        <v>1301.509416857086</v>
+        <v>1034.772688504529</v>
       </c>
       <c r="Y11" t="n">
-        <v>1301.509416857086</v>
+        <v>1034.772688504529</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5094,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>585.2191856043767</v>
+        <v>378.6782874046551</v>
       </c>
       <c r="C12" t="n">
-        <v>535.7211735640547</v>
+        <v>329.1802753643331</v>
       </c>
       <c r="D12" t="n">
-        <v>511.3879699608594</v>
+        <v>304.8470717611378</v>
       </c>
       <c r="E12" t="n">
-        <v>477.033544001575</v>
+        <v>270.4926458018534</v>
       </c>
       <c r="F12" t="n">
-        <v>332.0777540181919</v>
+        <v>248.7919588563312</v>
       </c>
       <c r="G12" t="n">
-        <v>194.9648908669802</v>
+        <v>111.6790957051195</v>
       </c>
       <c r="H12" t="n">
         <v>111.6790957051195</v>
@@ -5118,52 +5118,52 @@
         <v>34.09082802752391</v>
       </c>
       <c r="J12" t="n">
-        <v>34.09082802752391</v>
+        <v>67.81148563097685</v>
       </c>
       <c r="K12" t="n">
-        <v>218.3304160514282</v>
+        <v>252.0510736548811</v>
       </c>
       <c r="L12" t="n">
-        <v>526.9128856901198</v>
+        <v>560.6335432935728</v>
       </c>
       <c r="M12" t="n">
-        <v>939.8142669384035</v>
+        <v>973.5349245418565</v>
       </c>
       <c r="N12" t="n">
-        <v>1361.688263779012</v>
+        <v>1001.829782463883</v>
       </c>
       <c r="O12" t="n">
-        <v>1695.868406386863</v>
+        <v>1336.009925071734</v>
       </c>
       <c r="P12" t="n">
-        <v>1704.541401376196</v>
+        <v>1587.792410277645</v>
       </c>
       <c r="Q12" t="n">
         <v>1704.541401376196</v>
       </c>
       <c r="R12" t="n">
-        <v>1626.542617113318</v>
+        <v>1704.541401376196</v>
       </c>
       <c r="S12" t="n">
-        <v>1584.410521661633</v>
+        <v>1539.15420288665</v>
       </c>
       <c r="T12" t="n">
-        <v>1508.425233417129</v>
+        <v>1339.913811604285</v>
       </c>
       <c r="U12" t="n">
-        <v>1281.517497124192</v>
+        <v>1113.006075311348</v>
       </c>
       <c r="V12" t="n">
-        <v>1047.266253649793</v>
+        <v>1002.00993487481</v>
       </c>
       <c r="W12" t="n">
-        <v>918.0068650209874</v>
+        <v>834.7210698591267</v>
       </c>
       <c r="X12" t="n">
-        <v>834.7350694644258</v>
+        <v>751.4492743025651</v>
       </c>
       <c r="Y12" t="n">
-        <v>752.2617367259371</v>
+        <v>545.7208385262155</v>
       </c>
     </row>
     <row r="13">
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>265.5751708825946</v>
+        <v>261.4051868299501</v>
       </c>
       <c r="C13" t="n">
-        <v>219.8034527778269</v>
+        <v>215.6334687251824</v>
       </c>
       <c r="D13" t="n">
-        <v>192.5478825686985</v>
+        <v>188.377898516054</v>
       </c>
       <c r="E13" t="n">
-        <v>167.3437692699945</v>
+        <v>163.17378521735</v>
       </c>
       <c r="F13" t="n">
-        <v>142.9634971464367</v>
+        <v>138.7935130937922</v>
       </c>
       <c r="G13" t="n">
-        <v>96.87152021369373</v>
+        <v>92.70153616104926</v>
       </c>
       <c r="H13" t="n">
-        <v>58.97915110763175</v>
+        <v>54.80916705498726</v>
       </c>
       <c r="I13" t="n">
         <v>34.09082802752391</v>
       </c>
       <c r="J13" t="n">
-        <v>83.45962932283535</v>
+        <v>83.45962932283537</v>
       </c>
       <c r="K13" t="n">
-        <v>216.7776820939541</v>
+        <v>216.7776820939542</v>
       </c>
       <c r="L13" t="n">
-        <v>409.3994443472051</v>
+        <v>409.3994443472052</v>
       </c>
       <c r="M13" t="n">
         <v>616.5181956441178</v>
@@ -5230,19 +5230,19 @@
         <v>986.5624999289977</v>
       </c>
       <c r="U13" t="n">
-        <v>820.8889173427832</v>
+        <v>820.8889173427831</v>
       </c>
       <c r="V13" t="n">
-        <v>688.6527566766651</v>
+        <v>688.652756676665</v>
       </c>
       <c r="W13" t="n">
-        <v>522.9254588181467</v>
+        <v>522.9254588181466</v>
       </c>
       <c r="X13" t="n">
-        <v>417.755955863776</v>
+        <v>417.7559558637759</v>
       </c>
       <c r="Y13" t="n">
-        <v>324.2227865221922</v>
+        <v>320.0528024695476</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5252,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>893.9204398472759</v>
+        <v>995.0745448801612</v>
       </c>
       <c r="C14" t="n">
-        <v>893.9204398472759</v>
+        <v>747.6376320807062</v>
       </c>
       <c r="D14" t="n">
-        <v>893.9204398472759</v>
+        <v>510.6859343563465</v>
       </c>
       <c r="E14" t="n">
-        <v>893.9204398472759</v>
+        <v>246.9531224898766</v>
       </c>
       <c r="F14" t="n">
-        <v>605.7675999754996</v>
+        <v>246.9531224898766</v>
       </c>
       <c r="G14" t="n">
-        <v>310.5088757300016</v>
+        <v>246.9531224898766</v>
       </c>
       <c r="H14" t="n">
-        <v>97.646581267649</v>
+        <v>34.09082802752391</v>
       </c>
       <c r="I14" t="n">
         <v>34.09082802752391</v>
       </c>
       <c r="J14" t="n">
-        <v>77.64171918777316</v>
+        <v>77.64171918777319</v>
       </c>
       <c r="K14" t="n">
         <v>265.1898083646868</v>
       </c>
       <c r="L14" t="n">
-        <v>549.8288752482731</v>
+        <v>549.8288752482732</v>
       </c>
       <c r="M14" t="n">
         <v>881.756975090947</v>
@@ -5303,25 +5303,25 @@
         <v>1704.541401376196</v>
       </c>
       <c r="S14" t="n">
-        <v>1704.541401376196</v>
+        <v>1701.365434267667</v>
       </c>
       <c r="T14" t="n">
-        <v>1704.541401376196</v>
+        <v>1601.729408230048</v>
       </c>
       <c r="U14" t="n">
-        <v>1704.541401376196</v>
+        <v>1471.009079485</v>
       </c>
       <c r="V14" t="n">
-        <v>1495.944765502421</v>
+        <v>1262.412443611225</v>
       </c>
       <c r="W14" t="n">
-        <v>1495.944765502421</v>
+        <v>1262.412443611225</v>
       </c>
       <c r="X14" t="n">
-        <v>1244.592192650212</v>
+        <v>1262.412443611225</v>
       </c>
       <c r="Y14" t="n">
-        <v>977.2542939191475</v>
+        <v>995.0745448801612</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>338.7089795286552</v>
+        <v>286.6672934388066</v>
       </c>
       <c r="C15" t="n">
-        <v>205.925172326472</v>
+        <v>237.1692813984846</v>
       </c>
       <c r="D15" t="n">
-        <v>181.5919687232768</v>
+        <v>212.8360777952894</v>
       </c>
       <c r="E15" t="n">
-        <v>147.2375427639925</v>
+        <v>178.4816518360049</v>
       </c>
       <c r="F15" t="n">
-        <v>125.5368558184702</v>
+        <v>156.7809648904827</v>
       </c>
       <c r="G15" t="n">
-        <v>111.6790957051195</v>
+        <v>142.9232047771319</v>
       </c>
       <c r="H15" t="n">
-        <v>111.6790957051195</v>
+        <v>34.09082802752391</v>
       </c>
       <c r="I15" t="n">
         <v>34.09082802752391</v>
@@ -5358,13 +5358,13 @@
         <v>34.09082802752391</v>
       </c>
       <c r="K15" t="n">
-        <v>167.0544043749908</v>
+        <v>218.3304160514282</v>
       </c>
       <c r="L15" t="n">
-        <v>167.0544043749908</v>
+        <v>526.9128856901198</v>
       </c>
       <c r="M15" t="n">
-        <v>579.9557856232746</v>
+        <v>939.8142669384035</v>
       </c>
       <c r="N15" t="n">
         <v>1001.829782463883</v>
@@ -5382,25 +5382,25 @@
         <v>1626.542617113318</v>
       </c>
       <c r="S15" t="n">
-        <v>1461.155418623772</v>
+        <v>1532.368835571784</v>
       </c>
       <c r="T15" t="n">
-        <v>1261.915027341408</v>
+        <v>1333.12844428942</v>
       </c>
       <c r="U15" t="n">
-        <v>1035.007291048471</v>
+        <v>1229.475811034344</v>
       </c>
       <c r="V15" t="n">
-        <v>924.0111506119325</v>
+        <v>995.2245675599448</v>
       </c>
       <c r="W15" t="n">
-        <v>794.7517619831267</v>
+        <v>742.7100758932781</v>
       </c>
       <c r="X15" t="n">
-        <v>711.4799664265652</v>
+        <v>536.1831772988556</v>
       </c>
       <c r="Y15" t="n">
-        <v>505.7515306502156</v>
+        <v>330.4547415225061</v>
       </c>
     </row>
     <row r="16">
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>265.5751708825941</v>
+        <v>261.4051868299502</v>
       </c>
       <c r="C16" t="n">
-        <v>219.8034527778264</v>
+        <v>215.6334687251824</v>
       </c>
       <c r="D16" t="n">
-        <v>192.5478825686981</v>
+        <v>188.377898516054</v>
       </c>
       <c r="E16" t="n">
-        <v>167.3437692699942</v>
+        <v>163.1737852173501</v>
       </c>
       <c r="F16" t="n">
-        <v>142.9634971464365</v>
+        <v>138.7935130937923</v>
       </c>
       <c r="G16" t="n">
-        <v>96.87152021369359</v>
+        <v>92.70153616104938</v>
       </c>
       <c r="H16" t="n">
-        <v>58.97915110763167</v>
+        <v>54.80916705498726</v>
       </c>
       <c r="I16" t="n">
         <v>34.09082802752391</v>
       </c>
       <c r="J16" t="n">
-        <v>83.45962932283538</v>
+        <v>83.45962932283535</v>
       </c>
       <c r="K16" t="n">
-        <v>216.7776820939543</v>
+        <v>216.7776820939542</v>
       </c>
       <c r="L16" t="n">
-        <v>409.3994443472054</v>
+        <v>409.3994443472052</v>
       </c>
       <c r="M16" t="n">
-        <v>616.5181956441181</v>
+        <v>616.5181956441178</v>
       </c>
       <c r="N16" t="n">
-        <v>826.7257971805969</v>
+        <v>826.7257971805966</v>
       </c>
       <c r="O16" t="n">
-        <v>1014.771769283489</v>
+        <v>1014.771769283488</v>
       </c>
       <c r="P16" t="n">
         <v>1169.890169899395</v>
@@ -5458,28 +5458,28 @@
         <v>1231.291889568486</v>
       </c>
       <c r="R16" t="n">
-        <v>1190.122104134153</v>
+        <v>1190.122104134152</v>
       </c>
       <c r="S16" t="n">
         <v>1092.927789657317</v>
       </c>
       <c r="T16" t="n">
-        <v>990.7324839816411</v>
+        <v>986.5624999289979</v>
       </c>
       <c r="U16" t="n">
-        <v>825.0589013954267</v>
+        <v>820.8889173427834</v>
       </c>
       <c r="V16" t="n">
-        <v>692.8227407293086</v>
+        <v>688.6527566766654</v>
       </c>
       <c r="W16" t="n">
-        <v>527.0954428707903</v>
+        <v>522.9254588181467</v>
       </c>
       <c r="X16" t="n">
-        <v>421.9259399164198</v>
+        <v>417.755955863776</v>
       </c>
       <c r="Y16" t="n">
-        <v>324.2227865221916</v>
+        <v>320.0528024695477</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>819.755406062422</v>
       </c>
       <c r="D17" t="n">
-        <v>685.062466365174</v>
+        <v>685.0624663651741</v>
       </c>
       <c r="E17" t="n">
-        <v>523.5884125258159</v>
+        <v>523.5884125258156</v>
       </c>
       <c r="F17" t="n">
-        <v>337.6943306811513</v>
+        <v>337.694330681151</v>
       </c>
       <c r="G17" t="n">
         <v>144.6943644627648</v>
@@ -5513,16 +5513,16 @@
         <v>34.09082802752391</v>
       </c>
       <c r="J17" t="n">
-        <v>77.64171918777333</v>
+        <v>77.64171918777316</v>
       </c>
       <c r="K17" t="n">
-        <v>265.189808364687</v>
+        <v>265.1898083646868</v>
       </c>
       <c r="L17" t="n">
-        <v>549.8288752482733</v>
+        <v>549.8288752482731</v>
       </c>
       <c r="M17" t="n">
-        <v>881.7569750909472</v>
+        <v>881.7569750909468</v>
       </c>
       <c r="N17" t="n">
         <v>1203.53884361695</v>
@@ -5549,7 +5549,7 @@
         <v>1676.079830658259</v>
       </c>
       <c r="V17" t="n">
-        <v>1569.741952811597</v>
+        <v>1569.741952811596</v>
       </c>
       <c r="W17" t="n">
         <v>1441.184988623484</v>
@@ -5568,49 +5568,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>550.8741165300555</v>
+        <v>206.8439431057067</v>
       </c>
       <c r="C18" t="n">
-        <v>378.1210014518728</v>
+        <v>34.09082802752391</v>
       </c>
       <c r="D18" t="n">
-        <v>378.1210014518728</v>
+        <v>34.09082802752391</v>
       </c>
       <c r="E18" t="n">
-        <v>220.5114724547275</v>
+        <v>34.09082802752391</v>
       </c>
       <c r="F18" t="n">
-        <v>220.5114724547275</v>
+        <v>34.09082802752391</v>
       </c>
       <c r="G18" t="n">
-        <v>220.5114724547275</v>
+        <v>34.09082802752391</v>
       </c>
       <c r="H18" t="n">
-        <v>111.6790957051195</v>
+        <v>34.09082802752391</v>
       </c>
       <c r="I18" t="n">
         <v>34.09082802752391</v>
       </c>
       <c r="J18" t="n">
-        <v>34.09082802752391</v>
+        <v>67.81148563097685</v>
       </c>
       <c r="K18" t="n">
-        <v>34.09082802752391</v>
+        <v>252.0510736548811</v>
       </c>
       <c r="L18" t="n">
-        <v>342.6732976662155</v>
+        <v>560.6335432935728</v>
       </c>
       <c r="M18" t="n">
-        <v>755.5746789144994</v>
+        <v>579.9557856232746</v>
       </c>
       <c r="N18" t="n">
-        <v>1177.448675755108</v>
+        <v>1001.829782463883</v>
       </c>
       <c r="O18" t="n">
-        <v>1511.628818362959</v>
+        <v>1336.009925071734</v>
       </c>
       <c r="P18" t="n">
-        <v>1704.541401376196</v>
+        <v>1587.792410277645</v>
       </c>
       <c r="Q18" t="n">
         <v>1704.541401376196</v>
@@ -5619,25 +5619,25 @@
         <v>1626.542617113318</v>
       </c>
       <c r="S18" t="n">
-        <v>1461.155418623772</v>
+        <v>1473.541830249434</v>
       </c>
       <c r="T18" t="n">
-        <v>1261.915027341408</v>
+        <v>1274.301438967069</v>
       </c>
       <c r="U18" t="n">
-        <v>1035.007291048471</v>
+        <v>1047.393702674132</v>
       </c>
       <c r="V18" t="n">
-        <v>800.7560475740715</v>
+        <v>1038.656320264706</v>
       </c>
       <c r="W18" t="n">
-        <v>757.401015124478</v>
+        <v>786.1418285980392</v>
       </c>
       <c r="X18" t="n">
-        <v>550.8741165300555</v>
+        <v>579.6149300036167</v>
       </c>
       <c r="Y18" t="n">
-        <v>550.8741165300555</v>
+        <v>373.8864942272672</v>
       </c>
     </row>
     <row r="19">
@@ -5701,16 +5701,16 @@
         <v>395.7074096796391</v>
       </c>
       <c r="T19" t="n">
-        <v>391.6008779784316</v>
+        <v>193.8623399842984</v>
       </c>
       <c r="U19" t="n">
-        <v>328.186053419329</v>
+        <v>130.4475154251957</v>
       </c>
       <c r="V19" t="n">
         <v>100.4701127861895</v>
       </c>
       <c r="W19" t="n">
-        <v>37.00157295478284</v>
+        <v>37.00157295478282</v>
       </c>
       <c r="X19" t="n">
         <v>34.09082802752391</v>
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>964.9335608347648</v>
+        <v>964.9335608347651</v>
       </c>
       <c r="C20" t="n">
-        <v>819.7554060624216</v>
+        <v>819.755406062422</v>
       </c>
       <c r="D20" t="n">
-        <v>685.0624663651736</v>
+        <v>685.062466365174</v>
       </c>
       <c r="E20" t="n">
-        <v>523.5884125258154</v>
+        <v>523.5884125258159</v>
       </c>
       <c r="F20" t="n">
-        <v>337.6943306811509</v>
+        <v>337.6943306811513</v>
       </c>
       <c r="G20" t="n">
         <v>144.6943644627648</v>
@@ -5750,16 +5750,16 @@
         <v>34.09082802752391</v>
       </c>
       <c r="J20" t="n">
-        <v>77.64171918777316</v>
+        <v>77.64171918777311</v>
       </c>
       <c r="K20" t="n">
-        <v>265.1898083646868</v>
+        <v>265.1898083646865</v>
       </c>
       <c r="L20" t="n">
-        <v>549.8288752482731</v>
+        <v>549.8288752482729</v>
       </c>
       <c r="M20" t="n">
-        <v>881.756975090947</v>
+        <v>881.7569750909466</v>
       </c>
       <c r="N20" t="n">
         <v>1203.53884361695</v>
@@ -5789,13 +5789,13 @@
         <v>1569.741952811596</v>
       </c>
       <c r="W20" t="n">
-        <v>1441.184988623483</v>
+        <v>1441.184988623484</v>
       </c>
       <c r="X20" t="n">
         <v>1292.091173798386</v>
       </c>
       <c r="Y20" t="n">
-        <v>1127.012033094433</v>
+        <v>1127.012033094434</v>
       </c>
     </row>
     <row r="21">
@@ -5805,43 +5805,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>587.013943666578</v>
+        <v>280.0360679283436</v>
       </c>
       <c r="C21" t="n">
-        <v>414.2608285883952</v>
+        <v>280.0360679283436</v>
       </c>
       <c r="D21" t="n">
-        <v>357.6243356059392</v>
+        <v>280.0360679283436</v>
       </c>
       <c r="E21" t="n">
-        <v>357.6243356059392</v>
+        <v>280.0360679283436</v>
       </c>
       <c r="F21" t="n">
-        <v>357.6243356059392</v>
+        <v>280.0360679283436</v>
       </c>
       <c r="G21" t="n">
-        <v>220.5114724547275</v>
+        <v>142.9232047771319</v>
       </c>
       <c r="H21" t="n">
-        <v>111.6790957051195</v>
+        <v>34.09082802752391</v>
       </c>
       <c r="I21" t="n">
         <v>34.09082802752391</v>
       </c>
       <c r="J21" t="n">
-        <v>67.81148563097685</v>
+        <v>67.81148563097683</v>
       </c>
       <c r="K21" t="n">
-        <v>67.81148563097685</v>
+        <v>252.0510736548811</v>
       </c>
       <c r="L21" t="n">
-        <v>376.3939552696685</v>
+        <v>560.6335432935728</v>
       </c>
       <c r="M21" t="n">
-        <v>789.2953365179523</v>
+        <v>579.9557856232746</v>
       </c>
       <c r="N21" t="n">
-        <v>1211.169333358561</v>
+        <v>1001.829782463883</v>
       </c>
       <c r="O21" t="n">
         <v>1336.009925071734</v>
@@ -5853,28 +5853,28 @@
         <v>1704.541401376196</v>
       </c>
       <c r="R21" t="n">
-        <v>1626.542617113318</v>
+        <v>1704.541401376196</v>
       </c>
       <c r="S21" t="n">
-        <v>1461.155418623772</v>
+        <v>1539.15420288665</v>
       </c>
       <c r="T21" t="n">
-        <v>1261.915027341408</v>
+        <v>1339.913811604285</v>
       </c>
       <c r="U21" t="n">
-        <v>1260.521152113443</v>
+        <v>1113.006075311348</v>
       </c>
       <c r="V21" t="n">
-        <v>1026.269908639044</v>
+        <v>1104.268692901922</v>
       </c>
       <c r="W21" t="n">
-        <v>999.2692780373501</v>
+        <v>859.333953420676</v>
       </c>
       <c r="X21" t="n">
-        <v>792.7423794429276</v>
+        <v>652.8070548262535</v>
       </c>
       <c r="Y21" t="n">
-        <v>587.013943666578</v>
+        <v>447.078619049904</v>
       </c>
     </row>
     <row r="22">
@@ -5911,7 +5911,7 @@
         <v>34.09082802752391</v>
       </c>
       <c r="K22" t="n">
-        <v>46.60655431123536</v>
+        <v>46.60655431123535</v>
       </c>
       <c r="L22" t="n">
         <v>118.4259900770789</v>
@@ -5920,37 +5920,37 @@
         <v>204.7424148865842</v>
       </c>
       <c r="N22" t="n">
-        <v>294.1476899356556</v>
+        <v>294.1476899356555</v>
       </c>
       <c r="O22" t="n">
-        <v>361.3913355511399</v>
+        <v>361.3913355511398</v>
       </c>
       <c r="P22" t="n">
-        <v>395.7074096796391</v>
+        <v>395.707409679639</v>
       </c>
       <c r="Q22" t="n">
-        <v>395.7074096796391</v>
+        <v>395.707409679639</v>
       </c>
       <c r="R22" t="n">
-        <v>395.7074096796391</v>
+        <v>395.707409679639</v>
       </c>
       <c r="S22" t="n">
-        <v>395.7074096796391</v>
+        <v>395.707409679639</v>
       </c>
       <c r="T22" t="n">
         <v>391.6008779784316</v>
       </c>
       <c r="U22" t="n">
-        <v>328.186053419329</v>
+        <v>328.1860534193289</v>
       </c>
       <c r="V22" t="n">
-        <v>298.2086507803227</v>
+        <v>100.4701127861895</v>
       </c>
       <c r="W22" t="n">
-        <v>234.740110948916</v>
+        <v>37.00157295478282</v>
       </c>
       <c r="X22" t="n">
-        <v>231.829366021657</v>
+        <v>34.09082802752391</v>
       </c>
       <c r="Y22" t="n">
         <v>34.09082802752391</v>
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>964.9335608347646</v>
+        <v>964.9335608347654</v>
       </c>
       <c r="C23" t="n">
-        <v>819.7554060624215</v>
+        <v>819.7554060624223</v>
       </c>
       <c r="D23" t="n">
-        <v>685.0624663651735</v>
+        <v>685.0624663651743</v>
       </c>
       <c r="E23" t="n">
-        <v>523.5884125258153</v>
+        <v>523.5884125258159</v>
       </c>
       <c r="F23" t="n">
-        <v>337.6943306811507</v>
+        <v>337.6943306811513</v>
       </c>
       <c r="G23" t="n">
         <v>144.6943644627648</v>
@@ -5987,7 +5987,7 @@
         <v>34.09082802752391</v>
       </c>
       <c r="J23" t="n">
-        <v>77.64171918777316</v>
+        <v>77.64171918777315</v>
       </c>
       <c r="K23" t="n">
         <v>265.1898083646868</v>
@@ -6008,31 +6008,31 @@
         <v>1644.280225347655</v>
       </c>
       <c r="Q23" t="n">
-        <v>1704.541401376196</v>
+        <v>1704.541401376195</v>
       </c>
       <c r="R23" t="n">
-        <v>1704.541401376196</v>
+        <v>1704.541401376195</v>
       </c>
       <c r="S23" t="n">
-        <v>1704.541401376196</v>
+        <v>1704.541401376195</v>
       </c>
       <c r="T23" t="n">
-        <v>1704.541401376196</v>
+        <v>1704.541401376195</v>
       </c>
       <c r="U23" t="n">
         <v>1676.079830658259</v>
       </c>
       <c r="V23" t="n">
-        <v>1569.741952811596</v>
+        <v>1569.741952811597</v>
       </c>
       <c r="W23" t="n">
-        <v>1441.184988623483</v>
+        <v>1441.184988623484</v>
       </c>
       <c r="X23" t="n">
-        <v>1292.091173798386</v>
+        <v>1292.091173798387</v>
       </c>
       <c r="Y23" t="n">
-        <v>1127.012033094433</v>
+        <v>1127.012033094434</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>792.7423794429276</v>
+        <v>597.7449729899095</v>
       </c>
       <c r="C24" t="n">
-        <v>619.9892643647447</v>
+        <v>424.9918579117267</v>
       </c>
       <c r="D24" t="n">
-        <v>472.4009577236886</v>
+        <v>424.9918579117267</v>
       </c>
       <c r="E24" t="n">
-        <v>314.7914287265432</v>
+        <v>424.9918579117267</v>
       </c>
       <c r="F24" t="n">
-        <v>314.7914287265432</v>
+        <v>280.0360679283436</v>
       </c>
       <c r="G24" t="n">
-        <v>177.6785655753316</v>
+        <v>142.9232047771319</v>
       </c>
       <c r="H24" t="n">
-        <v>68.84618882572356</v>
+        <v>34.09082802752391</v>
       </c>
       <c r="I24" t="n">
         <v>34.09082802752391</v>
@@ -6072,46 +6072,46 @@
         <v>218.3304160514282</v>
       </c>
       <c r="L24" t="n">
-        <v>283.8033954735413</v>
+        <v>526.9128856901198</v>
       </c>
       <c r="M24" t="n">
-        <v>696.7047767218251</v>
+        <v>939.8142669384035</v>
       </c>
       <c r="N24" t="n">
-        <v>1118.578773562434</v>
+        <v>1361.688263779012</v>
       </c>
       <c r="O24" t="n">
-        <v>1452.758916170284</v>
+        <v>1361.688263779012</v>
       </c>
       <c r="P24" t="n">
-        <v>1704.541401376196</v>
+        <v>1587.792410277645</v>
       </c>
       <c r="Q24" t="n">
-        <v>1704.541401376196</v>
+        <v>1704.541401376195</v>
       </c>
       <c r="R24" t="n">
-        <v>1626.542617113318</v>
+        <v>1663.547116219258</v>
       </c>
       <c r="S24" t="n">
-        <v>1461.155418623772</v>
+        <v>1498.159917729712</v>
       </c>
       <c r="T24" t="n">
-        <v>1261.915027341408</v>
+        <v>1498.159917729712</v>
       </c>
       <c r="U24" t="n">
-        <v>1035.007291048471</v>
+        <v>1271.252181436775</v>
       </c>
       <c r="V24" t="n">
-        <v>1026.269908639044</v>
+        <v>1262.514799027348</v>
       </c>
       <c r="W24" t="n">
-        <v>999.2692780373501</v>
+        <v>1010.000307360682</v>
       </c>
       <c r="X24" t="n">
-        <v>792.7423794429276</v>
+        <v>803.473408766259</v>
       </c>
       <c r="Y24" t="n">
-        <v>792.7423794429276</v>
+        <v>597.7449729899095</v>
       </c>
     </row>
     <row r="25">
@@ -6148,43 +6148,43 @@
         <v>34.09082802752391</v>
       </c>
       <c r="K25" t="n">
-        <v>46.60655431123536</v>
+        <v>46.60655431123534</v>
       </c>
       <c r="L25" t="n">
         <v>118.4259900770789</v>
       </c>
       <c r="M25" t="n">
-        <v>204.7424148865842</v>
+        <v>204.7424148865841</v>
       </c>
       <c r="N25" t="n">
-        <v>294.1476899356556</v>
+        <v>294.1476899356555</v>
       </c>
       <c r="O25" t="n">
-        <v>361.3913355511399</v>
+        <v>361.3913355511398</v>
       </c>
       <c r="P25" t="n">
-        <v>395.7074096796391</v>
+        <v>395.707409679639</v>
       </c>
       <c r="Q25" t="n">
-        <v>395.7074096796391</v>
+        <v>395.707409679639</v>
       </c>
       <c r="R25" t="n">
-        <v>395.7074096796391</v>
+        <v>231.2825212074443</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9688716855059</v>
+        <v>231.2825212074443</v>
       </c>
       <c r="T25" t="n">
-        <v>193.8623399842985</v>
+        <v>227.1759895062368</v>
       </c>
       <c r="U25" t="n">
-        <v>130.4475154251958</v>
+        <v>163.7611649471342</v>
       </c>
       <c r="V25" t="n">
         <v>100.4701127861895</v>
       </c>
       <c r="W25" t="n">
-        <v>37.00157295478284</v>
+        <v>37.00157295478281</v>
       </c>
       <c r="X25" t="n">
         <v>34.09082802752391</v>
@@ -6203,25 +6203,25 @@
         <v>1523.640936362584</v>
       </c>
       <c r="C26" t="n">
-        <v>1296.495985797049</v>
+        <v>1296.495985797048</v>
       </c>
       <c r="D26" t="n">
-        <v>1079.836250306609</v>
+        <v>1079.836250306608</v>
       </c>
       <c r="E26" t="n">
-        <v>836.3954006740585</v>
+        <v>836.3954006740577</v>
       </c>
       <c r="F26" t="n">
-        <v>568.5345230362017</v>
+        <v>568.5345230362007</v>
       </c>
       <c r="G26" t="n">
-        <v>293.567761024623</v>
+        <v>293.5677610246221</v>
       </c>
       <c r="H26" t="n">
         <v>100.9974287961899</v>
       </c>
       <c r="I26" t="n">
-        <v>57.73363778998429</v>
+        <v>57.73363778998428</v>
       </c>
       <c r="J26" t="n">
         <v>241.9750076231055</v>
@@ -6245,28 +6245,28 @@
         <v>2652.756385820219</v>
       </c>
       <c r="Q26" t="n">
-        <v>2853.708040521632</v>
+        <v>2853.708040521631</v>
       </c>
       <c r="R26" t="n">
         <v>2886.681889499214</v>
       </c>
       <c r="S26" t="n">
-        <v>2834.393615466868</v>
+        <v>2834.393615466867</v>
       </c>
       <c r="T26" t="n">
-        <v>2755.049551663169</v>
+        <v>2755.049551663168</v>
       </c>
       <c r="U26" t="n">
-        <v>2644.62118515204</v>
+        <v>2644.621185152039</v>
       </c>
       <c r="V26" t="n">
-        <v>2456.316511512185</v>
+        <v>2456.316511512184</v>
       </c>
       <c r="W26" t="n">
-        <v>2245.79275153088</v>
+        <v>2245.792751530879</v>
       </c>
       <c r="X26" t="n">
-        <v>2014.73214091259</v>
+        <v>2014.732140912589</v>
       </c>
       <c r="Y26" t="n">
         <v>1767.686204415445</v>
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1004.173886068167</v>
+        <v>674.2061763691829</v>
       </c>
       <c r="C27" t="n">
-        <v>831.420770989984</v>
+        <v>645.0001265627805</v>
       </c>
       <c r="D27" t="n">
-        <v>683.8324643489279</v>
+        <v>497.4118199217244</v>
       </c>
       <c r="E27" t="n">
-        <v>526.2229353517827</v>
+        <v>339.8022909245791</v>
       </c>
       <c r="F27" t="n">
-        <v>381.2671453683996</v>
+        <v>194.846500941196</v>
       </c>
       <c r="G27" t="n">
-        <v>244.1542822171879</v>
+        <v>57.73363778998428</v>
       </c>
       <c r="H27" t="n">
-        <v>135.3219054675799</v>
+        <v>57.73363778998428</v>
       </c>
       <c r="I27" t="n">
-        <v>57.73363778998429</v>
+        <v>57.73363778998428</v>
       </c>
       <c r="J27" t="n">
         <v>91.45429539343721</v>
@@ -6330,25 +6330,25 @@
         <v>2061.118953140704</v>
       </c>
       <c r="S27" t="n">
-        <v>2039.278819922939</v>
+        <v>1895.731754651158</v>
       </c>
       <c r="T27" t="n">
-        <v>1983.585493912355</v>
+        <v>1840.038428640574</v>
       </c>
       <c r="U27" t="n">
-        <v>1900.224822891198</v>
+        <v>1613.130692347637</v>
       </c>
       <c r="V27" t="n">
-        <v>1665.973579416799</v>
+        <v>1378.879448873238</v>
       </c>
       <c r="W27" t="n">
-        <v>1557.006153021913</v>
+        <v>1126.364957206571</v>
       </c>
       <c r="X27" t="n">
-        <v>1350.47925442749</v>
+        <v>1046.977163267093</v>
       </c>
       <c r="Y27" t="n">
-        <v>1144.750818651141</v>
+        <v>841.2487274907434</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>147.1742450076182</v>
+        <v>147.1742450076184</v>
       </c>
       <c r="C28" t="n">
-        <v>121.69448913677</v>
+        <v>121.6944891367701</v>
       </c>
       <c r="D28" t="n">
-        <v>114.7308811615611</v>
+        <v>114.7308811615613</v>
       </c>
       <c r="E28" t="n">
-        <v>109.8187300967767</v>
+        <v>109.8187300967768</v>
       </c>
       <c r="F28" t="n">
-        <v>105.7304202071384</v>
+        <v>105.7304202071385</v>
       </c>
       <c r="G28" t="n">
-        <v>79.930405508315</v>
+        <v>79.93040550831506</v>
       </c>
       <c r="H28" t="n">
-        <v>62.32999863617258</v>
+        <v>62.3299986361726</v>
       </c>
       <c r="I28" t="n">
-        <v>57.73363778998429</v>
+        <v>57.73363778998428</v>
       </c>
       <c r="J28" t="n">
-        <v>57.73363778998429</v>
+        <v>57.73363778998428</v>
       </c>
       <c r="K28" t="n">
-        <v>70.24936407369573</v>
+        <v>70.24936407369572</v>
       </c>
       <c r="L28" t="n">
-        <v>282.7592785124112</v>
+        <v>153.790560165147</v>
       </c>
       <c r="M28" t="n">
-        <v>509.7661819947885</v>
+        <v>380.7974636475242</v>
       </c>
       <c r="N28" t="n">
-        <v>599.1714570438598</v>
+        <v>610.8932173694675</v>
       </c>
       <c r="O28" t="n">
-        <v>759.4267348395068</v>
+        <v>818.8273416578238</v>
       </c>
       <c r="P28" t="n">
-        <v>934.4332876408779</v>
+        <v>853.143415786323</v>
       </c>
       <c r="Q28" t="n">
-        <v>934.4332876408779</v>
+        <v>934.4332876408782</v>
       </c>
       <c r="R28" t="n">
-        <v>913.5554644404635</v>
+        <v>913.5554644404639</v>
       </c>
       <c r="S28" t="n">
-        <v>836.6531121975481</v>
+        <v>836.6531121975485</v>
       </c>
       <c r="T28" t="n">
-        <v>750.5797847031484</v>
+        <v>750.5797847031488</v>
       </c>
       <c r="U28" t="n">
-        <v>605.1981643508535</v>
+        <v>605.1981643508539</v>
       </c>
       <c r="V28" t="n">
-        <v>493.253965918655</v>
+        <v>493.2539659186553</v>
       </c>
       <c r="W28" t="n">
-        <v>347.818630294056</v>
+        <v>347.8186302940563</v>
       </c>
       <c r="X28" t="n">
-        <v>262.9410895736049</v>
+        <v>262.9410895736052</v>
       </c>
       <c r="Y28" t="n">
-        <v>185.5298984132962</v>
+        <v>185.5298984132964</v>
       </c>
     </row>
     <row r="29">
@@ -6458,31 +6458,31 @@
         <v>100.9974287961899</v>
       </c>
       <c r="I29" t="n">
-        <v>57.73363778998429</v>
+        <v>57.73363778998428</v>
       </c>
       <c r="J29" t="n">
-        <v>241.9750076231055</v>
+        <v>241.9750076231051</v>
       </c>
       <c r="K29" t="n">
-        <v>570.2135754728911</v>
+        <v>570.2135754728906</v>
       </c>
       <c r="L29" t="n">
-        <v>995.5431210293493</v>
+        <v>995.5431210293486</v>
       </c>
       <c r="M29" t="n">
-        <v>1468.161699544895</v>
+        <v>1468.161699544894</v>
       </c>
       <c r="N29" t="n">
-        <v>1930.63404674377</v>
+        <v>1930.634046743769</v>
       </c>
       <c r="O29" t="n">
-        <v>2329.045667843441</v>
+        <v>2329.04566784344</v>
       </c>
       <c r="P29" t="n">
-        <v>2652.75638582022</v>
+        <v>2652.756385820219</v>
       </c>
       <c r="Q29" t="n">
-        <v>2853.708040521632</v>
+        <v>2853.708040521631</v>
       </c>
       <c r="R29" t="n">
         <v>2886.681889499214</v>
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>860.6268207963865</v>
+        <v>403.5200064424587</v>
       </c>
       <c r="C30" t="n">
-        <v>831.420770989984</v>
+        <v>374.3139566360562</v>
       </c>
       <c r="D30" t="n">
-        <v>683.8324643489279</v>
+        <v>226.7256499950001</v>
       </c>
       <c r="E30" t="n">
-        <v>526.2229353517827</v>
+        <v>212.6631862696352</v>
       </c>
       <c r="F30" t="n">
-        <v>381.2671453683996</v>
+        <v>211.2544615580324</v>
       </c>
       <c r="G30" t="n">
-        <v>244.1542822171879</v>
+        <v>74.14159840682075</v>
       </c>
       <c r="H30" t="n">
-        <v>135.3219054675799</v>
+        <v>74.14159840682075</v>
       </c>
       <c r="I30" t="n">
-        <v>57.73363778998429</v>
+        <v>57.73363778998428</v>
       </c>
       <c r="J30" t="n">
         <v>91.45429539343721</v>
@@ -6564,28 +6564,28 @@
         <v>2139.117737403582</v>
       </c>
       <c r="R30" t="n">
-        <v>2139.117737403582</v>
+        <v>2061.118953140704</v>
       </c>
       <c r="S30" t="n">
-        <v>1973.730538914036</v>
+        <v>1895.731754651158</v>
       </c>
       <c r="T30" t="n">
-        <v>1918.037212903452</v>
+        <v>1696.491363368794</v>
       </c>
       <c r="U30" t="n">
-        <v>1834.676541882295</v>
+        <v>1469.583627075857</v>
       </c>
       <c r="V30" t="n">
-        <v>1600.425298407896</v>
+        <v>1235.332383601458</v>
       </c>
       <c r="W30" t="n">
-        <v>1347.910806741229</v>
+        <v>982.8178919347912</v>
       </c>
       <c r="X30" t="n">
-        <v>1233.397807694296</v>
+        <v>776.2909933403687</v>
       </c>
       <c r="Y30" t="n">
-        <v>1027.669371917947</v>
+        <v>570.5625575640191</v>
       </c>
     </row>
     <row r="31">
@@ -6616,16 +6616,16 @@
         <v>62.3299986361726</v>
       </c>
       <c r="I31" t="n">
-        <v>57.73363778998429</v>
+        <v>57.73363778998428</v>
       </c>
       <c r="J31" t="n">
-        <v>69.45539811559209</v>
+        <v>126.9905912707602</v>
       </c>
       <c r="K31" t="n">
-        <v>222.6616030721755</v>
+        <v>139.5063175544717</v>
       </c>
       <c r="L31" t="n">
-        <v>294.481038838019</v>
+        <v>211.3257533203152</v>
       </c>
       <c r="M31" t="n">
         <v>380.7974636475243</v>
@@ -6680,22 +6680,22 @@
         <v>1296.495985797049</v>
       </c>
       <c r="D32" t="n">
-        <v>1079.836250306609</v>
+        <v>1079.836250306608</v>
       </c>
       <c r="E32" t="n">
-        <v>836.3954006740582</v>
+        <v>836.3954006740581</v>
       </c>
       <c r="F32" t="n">
         <v>568.5345230362013</v>
       </c>
       <c r="G32" t="n">
-        <v>293.567761024623</v>
+        <v>293.5677610246232</v>
       </c>
       <c r="H32" t="n">
         <v>100.9974287961899</v>
       </c>
       <c r="I32" t="n">
-        <v>57.73363778998429</v>
+        <v>57.73363778998428</v>
       </c>
       <c r="J32" t="n">
         <v>241.9750076231055</v>
@@ -6704,16 +6704,16 @@
         <v>570.2135754728911</v>
       </c>
       <c r="L32" t="n">
-        <v>995.5431210293493</v>
+        <v>995.5431210293486</v>
       </c>
       <c r="M32" t="n">
-        <v>1468.161699544895</v>
+        <v>1468.161699544894</v>
       </c>
       <c r="N32" t="n">
-        <v>1930.63404674377</v>
+        <v>1930.634046743769</v>
       </c>
       <c r="O32" t="n">
-        <v>2329.045667843441</v>
+        <v>2329.04566784344</v>
       </c>
       <c r="P32" t="n">
         <v>2652.756385820219</v>
@@ -6725,19 +6725,19 @@
         <v>2886.681889499214</v>
       </c>
       <c r="S32" t="n">
-        <v>2834.393615466868</v>
+        <v>2834.393615466867</v>
       </c>
       <c r="T32" t="n">
-        <v>2755.049551663169</v>
+        <v>2755.049551663168</v>
       </c>
       <c r="U32" t="n">
-        <v>2644.62118515204</v>
+        <v>2644.621185152039</v>
       </c>
       <c r="V32" t="n">
-        <v>2456.316511512185</v>
+        <v>2456.316511512184</v>
       </c>
       <c r="W32" t="n">
-        <v>2245.79275153088</v>
+        <v>2245.792751530879</v>
       </c>
       <c r="X32" t="n">
         <v>2014.73214091259</v>
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>690.6141369860193</v>
+        <v>530.6591110974025</v>
       </c>
       <c r="C33" t="n">
-        <v>517.8610219078364</v>
+        <v>357.9059960192196</v>
       </c>
       <c r="D33" t="n">
-        <v>370.2727152667803</v>
+        <v>353.864754649944</v>
       </c>
       <c r="E33" t="n">
-        <v>212.663186269635</v>
+        <v>196.2552256527987</v>
       </c>
       <c r="F33" t="n">
-        <v>67.70739628625182</v>
+        <v>194.846500941196</v>
       </c>
       <c r="G33" t="n">
-        <v>67.70739628625182</v>
+        <v>57.73363778998428</v>
       </c>
       <c r="H33" t="n">
-        <v>57.73363778998429</v>
+        <v>57.73363778998428</v>
       </c>
       <c r="I33" t="n">
-        <v>57.73363778998429</v>
+        <v>57.73363778998428</v>
       </c>
       <c r="J33" t="n">
         <v>91.45429539343721</v>
@@ -6804,25 +6804,25 @@
         <v>2061.118953140704</v>
       </c>
       <c r="S33" t="n">
-        <v>2039.278819922939</v>
+        <v>1895.731754651158</v>
       </c>
       <c r="T33" t="n">
-        <v>1840.038428640574</v>
+        <v>1696.491363368794</v>
       </c>
       <c r="U33" t="n">
-        <v>1613.130692347637</v>
+        <v>1469.583627075857</v>
       </c>
       <c r="V33" t="n">
-        <v>1378.879448873238</v>
+        <v>1235.332383601458</v>
       </c>
       <c r="W33" t="n">
-        <v>1269.912022478352</v>
+        <v>982.8178919347912</v>
       </c>
       <c r="X33" t="n">
-        <v>1063.385123883929</v>
+        <v>776.2909933403687</v>
       </c>
       <c r="Y33" t="n">
-        <v>857.6566881075797</v>
+        <v>570.5625575640191</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>147.1742450076182</v>
+        <v>147.174245007618</v>
       </c>
       <c r="C34" t="n">
-        <v>121.69448913677</v>
+        <v>121.6944891367698</v>
       </c>
       <c r="D34" t="n">
-        <v>114.7308811615611</v>
+        <v>114.730881161561</v>
       </c>
       <c r="E34" t="n">
-        <v>109.8187300967767</v>
+        <v>109.8187300967766</v>
       </c>
       <c r="F34" t="n">
-        <v>105.7304202071384</v>
+        <v>105.7304202071383</v>
       </c>
       <c r="G34" t="n">
-        <v>79.930405508315</v>
+        <v>79.93040550831495</v>
       </c>
       <c r="H34" t="n">
-        <v>62.32999863617258</v>
+        <v>62.32999863617254</v>
       </c>
       <c r="I34" t="n">
-        <v>57.73363778998429</v>
+        <v>57.73363778998428</v>
       </c>
       <c r="J34" t="n">
         <v>126.9905912707603</v>
       </c>
       <c r="K34" t="n">
-        <v>280.1967962273437</v>
+        <v>222.6616030721742</v>
       </c>
       <c r="L34" t="n">
-        <v>375.7709106925739</v>
+        <v>294.4810388380178</v>
       </c>
       <c r="M34" t="n">
-        <v>602.7778141749511</v>
+        <v>380.797463647523</v>
       </c>
       <c r="N34" t="n">
-        <v>832.8735678968944</v>
+        <v>470.2027386965945</v>
       </c>
       <c r="O34" t="n">
-        <v>900.1172135123787</v>
+        <v>678.1368629849508</v>
       </c>
       <c r="P34" t="n">
-        <v>934.4332876408779</v>
+        <v>853.143415786322</v>
       </c>
       <c r="Q34" t="n">
-        <v>934.4332876408779</v>
+        <v>934.4332876408773</v>
       </c>
       <c r="R34" t="n">
-        <v>913.5554644404635</v>
+        <v>913.5554644404631</v>
       </c>
       <c r="S34" t="n">
-        <v>836.6531121975481</v>
+        <v>836.6531121975478</v>
       </c>
       <c r="T34" t="n">
-        <v>750.5797847031484</v>
+        <v>750.5797847031481</v>
       </c>
       <c r="U34" t="n">
-        <v>605.1981643508535</v>
+        <v>605.1981643508532</v>
       </c>
       <c r="V34" t="n">
-        <v>493.253965918655</v>
+        <v>493.2539659186546</v>
       </c>
       <c r="W34" t="n">
-        <v>347.818630294056</v>
+        <v>347.8186302940557</v>
       </c>
       <c r="X34" t="n">
-        <v>262.9410895736049</v>
+        <v>262.9410895736046</v>
       </c>
       <c r="Y34" t="n">
-        <v>185.5298984132962</v>
+        <v>185.5298984132959</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>981.3122544834366</v>
+        <v>981.3122544834359</v>
       </c>
       <c r="C35" t="n">
-        <v>833.5113677216004</v>
+        <v>833.5113677215996</v>
       </c>
       <c r="D35" t="n">
-        <v>696.1956960348593</v>
+        <v>696.1956960348585</v>
       </c>
       <c r="E35" t="n">
-        <v>532.098910206008</v>
+        <v>532.0989102060072</v>
       </c>
       <c r="F35" t="n">
-        <v>343.5820963718502</v>
+        <v>343.5820963718494</v>
       </c>
       <c r="G35" t="n">
         <v>147.9593981639706</v>
@@ -6938,16 +6938,16 @@
         <v>78.28402089948577</v>
       </c>
       <c r="K35" t="n">
-        <v>265.8321100763994</v>
+        <v>297.3048939503169</v>
       </c>
       <c r="L35" t="n">
-        <v>550.4711769599858</v>
+        <v>581.9439608339032</v>
       </c>
       <c r="M35" t="n">
-        <v>882.3992768026596</v>
+        <v>913.8720606765771</v>
       </c>
       <c r="N35" t="n">
-        <v>1204.181145328663</v>
+        <v>1235.65392920258</v>
       </c>
       <c r="O35" t="n">
         <v>1493.375071629379</v>
@@ -6968,19 +6968,19 @@
         <v>1736.656486961826</v>
       </c>
       <c r="U35" t="n">
-        <v>1705.572184254397</v>
+        <v>1705.572184254396</v>
       </c>
       <c r="V35" t="n">
-        <v>1596.611574418241</v>
+        <v>1596.61157441824</v>
       </c>
       <c r="W35" t="n">
-        <v>1465.431878240635</v>
+        <v>1465.431878240634</v>
       </c>
       <c r="X35" t="n">
         <v>1313.715331426044</v>
       </c>
       <c r="Y35" t="n">
-        <v>1146.013458732599</v>
+        <v>1146.013458732598</v>
       </c>
     </row>
     <row r="36">
@@ -6990,19 +6990,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>649.7969436068324</v>
+        <v>355.0745514584755</v>
       </c>
       <c r="C36" t="n">
-        <v>477.0438285286496</v>
+        <v>182.3214363802927</v>
       </c>
       <c r="D36" t="n">
-        <v>329.4555218875935</v>
+        <v>34.73312973923652</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8459928904482</v>
+        <v>34.73312973923652</v>
       </c>
       <c r="F36" t="n">
-        <v>171.8459928904482</v>
+        <v>34.73312973923652</v>
       </c>
       <c r="G36" t="n">
         <v>34.73312973923652</v>
@@ -7020,16 +7020,16 @@
         <v>218.9727177631408</v>
       </c>
       <c r="L36" t="n">
-        <v>527.5551874018324</v>
+        <v>525.4011488860283</v>
       </c>
       <c r="M36" t="n">
-        <v>940.4565686501162</v>
+        <v>938.302530134312</v>
       </c>
       <c r="N36" t="n">
-        <v>1370.279049173168</v>
+        <v>1368.125010657364</v>
       </c>
       <c r="O36" t="n">
-        <v>1370.279049173168</v>
+        <v>1368.125010657364</v>
       </c>
       <c r="P36" t="n">
         <v>1619.907495863276</v>
@@ -7041,25 +7041,25 @@
         <v>1736.656486961826</v>
       </c>
       <c r="S36" t="n">
-        <v>1736.656486961826</v>
+        <v>1571.26928847228</v>
       </c>
       <c r="T36" t="n">
-        <v>1537.416095679462</v>
+        <v>1372.028897189916</v>
       </c>
       <c r="U36" t="n">
-        <v>1310.508359386525</v>
+        <v>1368.012289972458</v>
       </c>
       <c r="V36" t="n">
-        <v>1076.257115912126</v>
+        <v>1186.886928617475</v>
       </c>
       <c r="W36" t="n">
-        <v>823.7426242454588</v>
+        <v>934.3724369508079</v>
       </c>
       <c r="X36" t="n">
-        <v>823.7426242454588</v>
+        <v>727.8455383563854</v>
       </c>
       <c r="Y36" t="n">
-        <v>649.7969436068324</v>
+        <v>522.1171025800359</v>
       </c>
     </row>
     <row r="37">
@@ -7069,7 +7069,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>203.7599508818651</v>
+        <v>34.73312973923652</v>
       </c>
       <c r="C37" t="n">
         <v>34.73312973923652</v>
@@ -7096,7 +7096,7 @@
         <v>34.73312973923652</v>
       </c>
       <c r="K37" t="n">
-        <v>47.24885602294796</v>
+        <v>47.24885602294795</v>
       </c>
       <c r="L37" t="n">
         <v>119.0682917887915</v>
@@ -7114,31 +7114,31 @@
         <v>396.3497113913517</v>
       </c>
       <c r="Q37" t="n">
-        <v>396.3497113913517</v>
+        <v>335.7430316461046</v>
       </c>
       <c r="R37" t="n">
-        <v>396.3497113913517</v>
+        <v>211.7248333446844</v>
       </c>
       <c r="S37" t="n">
-        <v>396.3497113913517</v>
+        <v>211.7248333446844</v>
       </c>
       <c r="T37" t="n">
-        <v>374.0223907966124</v>
+        <v>204.9955696539838</v>
       </c>
       <c r="U37" t="n">
-        <v>307.9848342480166</v>
+        <v>138.958013105388</v>
       </c>
       <c r="V37" t="n">
-        <v>275.3846996195171</v>
+        <v>106.3578784768885</v>
       </c>
       <c r="W37" t="n">
-        <v>209.2934277986172</v>
+        <v>40.26660665598862</v>
       </c>
       <c r="X37" t="n">
-        <v>203.7599508818651</v>
+        <v>34.73312973923652</v>
       </c>
       <c r="Y37" t="n">
-        <v>203.7599508818651</v>
+        <v>34.73312973923652</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7160,7 @@
         <v>532.0989102060074</v>
       </c>
       <c r="F38" t="n">
-        <v>343.5820963718497</v>
+        <v>343.5820963718496</v>
       </c>
       <c r="G38" t="n">
         <v>147.9593981639706</v>
@@ -7175,25 +7175,25 @@
         <v>78.28402089948577</v>
       </c>
       <c r="K38" t="n">
-        <v>297.3048939503169</v>
+        <v>265.8321100763994</v>
       </c>
       <c r="L38" t="n">
-        <v>581.9439608339032</v>
+        <v>550.4711769599858</v>
       </c>
       <c r="M38" t="n">
-        <v>913.8720606765771</v>
+        <v>882.3992768026596</v>
       </c>
       <c r="N38" t="n">
-        <v>1235.65392920258</v>
+        <v>1204.181145328663</v>
       </c>
       <c r="O38" t="n">
-        <v>1493.375071629379</v>
+        <v>1461.902287755461</v>
       </c>
       <c r="P38" t="n">
-        <v>1676.395310933286</v>
+        <v>1644.922527059368</v>
       </c>
       <c r="Q38" t="n">
-        <v>1736.656486961826</v>
+        <v>1705.183703087908</v>
       </c>
       <c r="R38" t="n">
         <v>1736.656486961826</v>
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>621.9996185120328</v>
+        <v>621.5164572052288</v>
       </c>
       <c r="C39" t="n">
-        <v>621.9996185120328</v>
+        <v>448.763342127046</v>
       </c>
       <c r="D39" t="n">
-        <v>474.4113118709766</v>
+        <v>301.1750354859898</v>
       </c>
       <c r="E39" t="n">
-        <v>316.8017828738314</v>
+        <v>143.5655064888445</v>
       </c>
       <c r="F39" t="n">
-        <v>171.8459928904482</v>
+        <v>143.5655064888445</v>
       </c>
       <c r="G39" t="n">
-        <v>34.73312973923652</v>
+        <v>143.5655064888445</v>
       </c>
       <c r="H39" t="n">
         <v>34.73312973923652</v>
@@ -7251,19 +7251,19 @@
         <v>34.73312973923652</v>
       </c>
       <c r="J39" t="n">
-        <v>68.45378734268945</v>
+        <v>68.45378734268944</v>
       </c>
       <c r="K39" t="n">
-        <v>252.6933753665937</v>
+        <v>68.45378734268944</v>
       </c>
       <c r="L39" t="n">
-        <v>561.2758450052854</v>
+        <v>377.0362569813811</v>
       </c>
       <c r="M39" t="n">
-        <v>604.1223875264615</v>
+        <v>789.9376382296648</v>
       </c>
       <c r="N39" t="n">
-        <v>1033.944868049513</v>
+        <v>1219.760118752717</v>
       </c>
       <c r="O39" t="n">
         <v>1368.125010657364</v>
@@ -7275,28 +7275,28 @@
         <v>1736.656486961826</v>
       </c>
       <c r="R39" t="n">
-        <v>1736.656486961826</v>
+        <v>1658.657702698948</v>
       </c>
       <c r="S39" t="n">
-        <v>1571.26928847228</v>
+        <v>1658.657702698948</v>
       </c>
       <c r="T39" t="n">
-        <v>1571.26928847228</v>
+        <v>1459.417311416584</v>
       </c>
       <c r="U39" t="n">
-        <v>1344.361552179343</v>
+        <v>1455.400704199127</v>
       </c>
       <c r="V39" t="n">
-        <v>1110.110308704944</v>
+        <v>1221.149460724728</v>
       </c>
       <c r="W39" t="n">
-        <v>1080.486946113756</v>
+        <v>968.6349690580608</v>
       </c>
       <c r="X39" t="n">
-        <v>873.9600475193339</v>
+        <v>762.1080704636383</v>
       </c>
       <c r="Y39" t="n">
-        <v>789.0421696335933</v>
+        <v>762.1080704636383</v>
       </c>
     </row>
     <row r="40">
@@ -7333,7 +7333,7 @@
         <v>34.73312973923652</v>
       </c>
       <c r="K40" t="n">
-        <v>47.24885602294796</v>
+        <v>47.24885602294795</v>
       </c>
       <c r="L40" t="n">
         <v>119.0682917887915</v>
@@ -7357,13 +7357,13 @@
         <v>396.3497113913517</v>
       </c>
       <c r="S40" t="n">
-        <v>211.7248333446844</v>
+        <v>396.3497113913517</v>
       </c>
       <c r="T40" t="n">
-        <v>204.9955696539838</v>
+        <v>389.620447700651</v>
       </c>
       <c r="U40" t="n">
-        <v>138.958013105388</v>
+        <v>323.5828911520552</v>
       </c>
       <c r="V40" t="n">
         <v>106.3578784768885</v>
@@ -7388,58 +7388,58 @@
         <v>1150.825059785584</v>
       </c>
       <c r="C41" t="n">
-        <v>975.968383252395</v>
+        <v>975.9683832523951</v>
       </c>
       <c r="D41" t="n">
-        <v>811.5969217943014</v>
+        <v>811.5969217943016</v>
       </c>
       <c r="E41" t="n">
-        <v>620.4443461940975</v>
+        <v>620.4443461940978</v>
       </c>
       <c r="F41" t="n">
-        <v>404.8717425885873</v>
+        <v>404.8717425885875</v>
       </c>
       <c r="G41" t="n">
         <v>182.1932546093554</v>
       </c>
       <c r="H41" t="n">
-        <v>41.91119641326883</v>
+        <v>41.91119641326882</v>
       </c>
       <c r="I41" t="n">
-        <v>41.91119641326883</v>
+        <v>41.91119641326882</v>
       </c>
       <c r="J41" t="n">
-        <v>85.46208757351809</v>
+        <v>85.46208757351806</v>
       </c>
       <c r="K41" t="n">
-        <v>273.0101767504317</v>
+        <v>464.9483928024066</v>
       </c>
       <c r="L41" t="n">
-        <v>557.649243634018</v>
+        <v>749.5874596859929</v>
       </c>
       <c r="M41" t="n">
-        <v>1076.30029924822</v>
+        <v>1268.238515300195</v>
       </c>
       <c r="N41" t="n">
-        <v>1398.082167774223</v>
+        <v>1590.020383826198</v>
       </c>
       <c r="O41" t="n">
-        <v>1655.803310201021</v>
+        <v>1847.741526252996</v>
       </c>
       <c r="P41" t="n">
         <v>2030.761765556903</v>
       </c>
       <c r="Q41" t="n">
-        <v>2095.559820663442</v>
+        <v>2091.022941585443</v>
       </c>
       <c r="R41" t="n">
-        <v>2095.559820663442</v>
+        <v>2095.559820663441</v>
       </c>
       <c r="S41" t="n">
-        <v>2095.559820663442</v>
+        <v>2095.559820663441</v>
       </c>
       <c r="T41" t="n">
-        <v>2068.504030892089</v>
+        <v>2068.504030892088</v>
       </c>
       <c r="U41" t="n">
         <v>2010.363938413307</v>
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>359.9620897023185</v>
+        <v>484.2218952026819</v>
       </c>
       <c r="C42" t="n">
-        <v>256.6123272420761</v>
+        <v>484.2218952026819</v>
       </c>
       <c r="D42" t="n">
-        <v>256.6123272420761</v>
+        <v>336.6335885616258</v>
       </c>
       <c r="E42" t="n">
-        <v>256.6123272420761</v>
+        <v>179.0240595644805</v>
       </c>
       <c r="F42" t="n">
-        <v>256.6123272420761</v>
+        <v>179.0240595644805</v>
       </c>
       <c r="G42" t="n">
-        <v>119.4994640908644</v>
+        <v>41.91119641326882</v>
       </c>
       <c r="H42" t="n">
-        <v>119.4994640908644</v>
+        <v>41.91119641326882</v>
       </c>
       <c r="I42" t="n">
-        <v>41.91119641326883</v>
+        <v>41.91119641326882</v>
       </c>
       <c r="J42" t="n">
-        <v>47.89637865329706</v>
+        <v>75.63185401672175</v>
       </c>
       <c r="K42" t="n">
-        <v>232.1359666772013</v>
+        <v>259.871442040626</v>
       </c>
       <c r="L42" t="n">
-        <v>540.718436315893</v>
+        <v>568.4539116793176</v>
       </c>
       <c r="M42" t="n">
-        <v>953.6198175641767</v>
+        <v>981.3552929276013</v>
       </c>
       <c r="N42" t="n">
-        <v>1392.848201751129</v>
+        <v>1392.848201751128</v>
       </c>
       <c r="O42" t="n">
-        <v>1727.02834435898</v>
+        <v>1727.028344358979</v>
       </c>
       <c r="P42" t="n">
         <v>1978.810829564891</v>
       </c>
       <c r="Q42" t="n">
-        <v>2095.559820663442</v>
+        <v>2095.559820663441</v>
       </c>
       <c r="R42" t="n">
-        <v>2017.561036400564</v>
+        <v>2017.561036400563</v>
       </c>
       <c r="S42" t="n">
-        <v>1852.173837911018</v>
+        <v>1852.173837911017</v>
       </c>
       <c r="T42" t="n">
-        <v>1652.933446628654</v>
+        <v>1652.933446628653</v>
       </c>
       <c r="U42" t="n">
-        <v>1426.025710335717</v>
+        <v>1426.025710335716</v>
       </c>
       <c r="V42" t="n">
-        <v>1191.774466861318</v>
+        <v>1191.774466861317</v>
       </c>
       <c r="W42" t="n">
-        <v>939.259975194651</v>
+        <v>939.2599751946501</v>
       </c>
       <c r="X42" t="n">
-        <v>732.7330766002285</v>
+        <v>732.7330766002276</v>
       </c>
       <c r="Y42" t="n">
-        <v>527.004640823879</v>
+        <v>651.2644463242424</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>41.91119641326883</v>
+        <v>41.91119641326882</v>
       </c>
       <c r="C43" t="n">
-        <v>41.91119641326883</v>
+        <v>41.91119641326882</v>
       </c>
       <c r="D43" t="n">
-        <v>41.91119641326883</v>
+        <v>41.91119641326882</v>
       </c>
       <c r="E43" t="n">
-        <v>41.91119641326883</v>
+        <v>41.91119641326882</v>
       </c>
       <c r="F43" t="n">
-        <v>41.91119641326883</v>
+        <v>41.91119641326882</v>
       </c>
       <c r="G43" t="n">
-        <v>41.91119641326883</v>
+        <v>41.91119641326882</v>
       </c>
       <c r="H43" t="n">
-        <v>41.91119641326883</v>
+        <v>41.91119641326882</v>
       </c>
       <c r="I43" t="n">
-        <v>42.30226256189526</v>
+        <v>41.91119641326882</v>
       </c>
       <c r="J43" t="n">
-        <v>42.30226256189526</v>
+        <v>41.91119641326882</v>
       </c>
       <c r="K43" t="n">
-        <v>54.81798884560671</v>
+        <v>54.42692269698026</v>
       </c>
       <c r="L43" t="n">
-        <v>126.6374246114502</v>
+        <v>126.2463584628238</v>
       </c>
       <c r="M43" t="n">
-        <v>212.9538494209555</v>
+        <v>212.5627832723291</v>
       </c>
       <c r="N43" t="n">
-        <v>302.3591244700269</v>
+        <v>301.9680583214005</v>
       </c>
       <c r="O43" t="n">
-        <v>369.6027700855112</v>
+        <v>369.6027700855109</v>
       </c>
       <c r="P43" t="n">
-        <v>403.9188442140103</v>
+        <v>403.9188442140101</v>
       </c>
       <c r="Q43" t="n">
-        <v>403.9188442140103</v>
+        <v>403.9188442140101</v>
       </c>
       <c r="R43" t="n">
-        <v>403.9188442140103</v>
+        <v>403.9188442140101</v>
       </c>
       <c r="S43" t="n">
-        <v>379.3047660034415</v>
+        <v>379.3047660034413</v>
       </c>
       <c r="T43" t="n">
-        <v>345.5197125413883</v>
+        <v>345.5197125413882</v>
       </c>
       <c r="U43" t="n">
-        <v>252.42636622144</v>
+        <v>252.4263662214398</v>
       </c>
       <c r="V43" t="n">
-        <v>192.770441821588</v>
+        <v>192.7704418215879</v>
       </c>
       <c r="W43" t="n">
-        <v>99.62338022933561</v>
+        <v>99.62338022933554</v>
       </c>
       <c r="X43" t="n">
-        <v>67.03411354123099</v>
+        <v>67.03411354123095</v>
       </c>
       <c r="Y43" t="n">
-        <v>41.91119641326883</v>
+        <v>41.91119641326882</v>
       </c>
     </row>
     <row r="44">
@@ -7625,64 +7625,64 @@
         <v>1150.825059785584</v>
       </c>
       <c r="C44" t="n">
-        <v>975.9683832523956</v>
+        <v>975.9683832523949</v>
       </c>
       <c r="D44" t="n">
-        <v>811.596921794302</v>
+        <v>811.5969217943014</v>
       </c>
       <c r="E44" t="n">
-        <v>620.4443461940979</v>
+        <v>620.4443461940975</v>
       </c>
       <c r="F44" t="n">
-        <v>404.8717425885875</v>
+        <v>404.8717425885873</v>
       </c>
       <c r="G44" t="n">
-        <v>182.1932546093555</v>
+        <v>182.1932546093554</v>
       </c>
       <c r="H44" t="n">
-        <v>41.91119641326883</v>
+        <v>41.91119641326882</v>
       </c>
       <c r="I44" t="n">
-        <v>50.75609222718951</v>
+        <v>41.91119641326882</v>
       </c>
       <c r="J44" t="n">
-        <v>276.7219224230444</v>
+        <v>85.46208757351806</v>
       </c>
       <c r="K44" t="n">
-        <v>464.270011599958</v>
+        <v>273.0101767504317</v>
       </c>
       <c r="L44" t="n">
-        <v>748.9090784835444</v>
+        <v>748.9090784835435</v>
       </c>
       <c r="M44" t="n">
-        <v>1080.837178326218</v>
+        <v>1080.837178326217</v>
       </c>
       <c r="N44" t="n">
-        <v>1594.557262904196</v>
+        <v>1402.61904685222</v>
       </c>
       <c r="O44" t="n">
-        <v>1852.278405330995</v>
+        <v>1852.278405330994</v>
       </c>
       <c r="P44" t="n">
-        <v>2035.298644634902</v>
+        <v>2035.298644634901</v>
       </c>
       <c r="Q44" t="n">
-        <v>2095.559820663442</v>
+        <v>2095.559820663441</v>
       </c>
       <c r="R44" t="n">
-        <v>2095.559820663442</v>
+        <v>2095.559820663441</v>
       </c>
       <c r="S44" t="n">
-        <v>2095.559820663442</v>
+        <v>2095.559820663441</v>
       </c>
       <c r="T44" t="n">
-        <v>2068.504030892089</v>
+        <v>2068.504030892088</v>
       </c>
       <c r="U44" t="n">
-        <v>2010.363938413308</v>
+        <v>2010.363938413306</v>
       </c>
       <c r="V44" t="n">
-        <v>1874.347538805799</v>
+        <v>1874.347538805798</v>
       </c>
       <c r="W44" t="n">
         <v>1716.11205285684</v>
@@ -7691,7 +7691,7 @@
         <v>1537.339716270897</v>
       </c>
       <c r="Y44" t="n">
-        <v>1342.582053806099</v>
+        <v>1342.582053806098</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>773.6503138626442</v>
+        <v>555.7974290064445</v>
       </c>
       <c r="C45" t="n">
-        <v>600.8971987844614</v>
+        <v>383.0443139282617</v>
       </c>
       <c r="D45" t="n">
-        <v>453.3088921434053</v>
+        <v>235.4560072872056</v>
       </c>
       <c r="E45" t="n">
-        <v>295.69936314626</v>
+        <v>235.4560072872056</v>
       </c>
       <c r="F45" t="n">
-        <v>150.7435731628768</v>
+        <v>179.0240595644805</v>
       </c>
       <c r="G45" t="n">
-        <v>150.7435731628768</v>
+        <v>41.91119641326882</v>
       </c>
       <c r="H45" t="n">
-        <v>41.91119641326883</v>
+        <v>41.91119641326882</v>
       </c>
       <c r="I45" t="n">
-        <v>41.91119641326883</v>
+        <v>41.91119641326882</v>
       </c>
       <c r="J45" t="n">
-        <v>75.63185401672176</v>
+        <v>75.63185401672175</v>
       </c>
       <c r="K45" t="n">
-        <v>259.8714420406261</v>
+        <v>259.871442040626</v>
       </c>
       <c r="L45" t="n">
-        <v>568.4539116793177</v>
+        <v>568.4539116793176</v>
       </c>
       <c r="M45" t="n">
-        <v>981.3552929276015</v>
+        <v>981.3552929276013</v>
       </c>
       <c r="N45" t="n">
         <v>1420.583677114554</v>
       </c>
       <c r="O45" t="n">
-        <v>1754.763819722405</v>
+        <v>1727.028344358979</v>
       </c>
       <c r="P45" t="n">
         <v>1978.810829564891</v>
       </c>
       <c r="Q45" t="n">
-        <v>2095.559820663442</v>
+        <v>2095.559820663441</v>
       </c>
       <c r="R45" t="n">
-        <v>2017.561036400564</v>
+        <v>2017.561036400563</v>
       </c>
       <c r="S45" t="n">
-        <v>2017.561036400564</v>
+        <v>1852.173837911017</v>
       </c>
       <c r="T45" t="n">
-        <v>2014.155984422327</v>
+        <v>1652.933446628653</v>
       </c>
       <c r="U45" t="n">
-        <v>1787.24824812939</v>
+        <v>1426.025710335716</v>
       </c>
       <c r="V45" t="n">
-        <v>1552.997004654991</v>
+        <v>1387.609806165444</v>
       </c>
       <c r="W45" t="n">
-        <v>1300.482512988324</v>
+        <v>1135.095314498777</v>
       </c>
       <c r="X45" t="n">
-        <v>1093.955614393901</v>
+        <v>928.5684159043545</v>
       </c>
       <c r="Y45" t="n">
-        <v>940.6928649842047</v>
+        <v>722.839980128005</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>41.91119641326883</v>
+        <v>41.91119641326882</v>
       </c>
       <c r="C46" t="n">
-        <v>41.91119641326883</v>
+        <v>41.91119641326882</v>
       </c>
       <c r="D46" t="n">
-        <v>41.91119641326883</v>
+        <v>41.91119641326882</v>
       </c>
       <c r="E46" t="n">
-        <v>41.91119641326883</v>
+        <v>41.91119641326882</v>
       </c>
       <c r="F46" t="n">
-        <v>42.3022625618956</v>
+        <v>41.91119641326882</v>
       </c>
       <c r="G46" t="n">
-        <v>42.3022625618956</v>
+        <v>41.91119641326882</v>
       </c>
       <c r="H46" t="n">
-        <v>42.3022625618956</v>
+        <v>41.91119641326882</v>
       </c>
       <c r="I46" t="n">
-        <v>42.3022625618956</v>
+        <v>41.91119641326882</v>
       </c>
       <c r="J46" t="n">
-        <v>42.3022625618956</v>
+        <v>41.91119641326882</v>
       </c>
       <c r="K46" t="n">
-        <v>54.81798884560705</v>
+        <v>54.42692269698026</v>
       </c>
       <c r="L46" t="n">
-        <v>126.6374246114506</v>
+        <v>126.2463584628238</v>
       </c>
       <c r="M46" t="n">
-        <v>212.9538494209559</v>
+        <v>212.5627832723291</v>
       </c>
       <c r="N46" t="n">
-        <v>302.3591244700273</v>
+        <v>301.9680583214005</v>
       </c>
       <c r="O46" t="n">
-        <v>369.6027700855116</v>
+        <v>369.2117039368848</v>
       </c>
       <c r="P46" t="n">
-        <v>403.9188442140107</v>
+        <v>403.5277780653839</v>
       </c>
       <c r="Q46" t="n">
-        <v>403.9188442140107</v>
+        <v>403.5277780653839</v>
       </c>
       <c r="R46" t="n">
-        <v>403.9188442140107</v>
+        <v>403.9188442140101</v>
       </c>
       <c r="S46" t="n">
-        <v>379.3047660034418</v>
+        <v>379.3047660034413</v>
       </c>
       <c r="T46" t="n">
-        <v>345.5197125413886</v>
+        <v>345.5197125413882</v>
       </c>
       <c r="U46" t="n">
-        <v>252.4263662214402</v>
+        <v>252.4263662214398</v>
       </c>
       <c r="V46" t="n">
-        <v>192.7704418215882</v>
+        <v>192.7704418215879</v>
       </c>
       <c r="W46" t="n">
-        <v>99.62338022933572</v>
+        <v>99.62338022933554</v>
       </c>
       <c r="X46" t="n">
-        <v>67.03411354123105</v>
+        <v>67.03411354123095</v>
       </c>
       <c r="Y46" t="n">
-        <v>41.91119641326883</v>
+        <v>41.91119641326882</v>
       </c>
     </row>
   </sheetData>
@@ -8766,7 +8766,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J12" t="n">
-        <v>97.07340644750707</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K12" t="n">
         <v>275.0438464930818</v>
@@ -8778,16 +8778,16 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N12" t="n">
-        <v>480.9863851290694</v>
+        <v>83.43169935272388</v>
       </c>
       <c r="O12" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P12" t="n">
-        <v>85.63613775262672</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q12" t="n">
-        <v>100.5521054083636</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R12" t="n">
         <v>47.34253660377365</v>
@@ -8939,7 +8939,7 @@
         <v>454.8408013884635</v>
       </c>
       <c r="O14" t="n">
-        <v>396.0321885132551</v>
+        <v>396.0321885132552</v>
       </c>
       <c r="P14" t="n">
         <v>334.6706564983419</v>
@@ -9006,16 +9006,16 @@
         <v>97.07340644750707</v>
       </c>
       <c r="K15" t="n">
-        <v>223.2498953047612</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L15" t="n">
-        <v>73.97449483409079</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M15" t="n">
         <v>484.3332662999999</v>
       </c>
       <c r="N15" t="n">
-        <v>480.9863851290694</v>
+        <v>117.4929696592421</v>
       </c>
       <c r="O15" t="n">
         <v>409.6168120477987</v>
@@ -9170,7 +9170,7 @@
         <v>434.3676631324684</v>
       </c>
       <c r="M17" t="n">
-        <v>467.4940748325458</v>
+        <v>467.4940748325457</v>
       </c>
       <c r="N17" t="n">
         <v>454.8408013884635</v>
@@ -9240,16 +9240,16 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J18" t="n">
-        <v>97.07340644750707</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K18" t="n">
-        <v>88.94325252954214</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L18" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M18" t="n">
-        <v>484.3332662999999</v>
+        <v>86.77858052365454</v>
       </c>
       <c r="N18" t="n">
         <v>480.9863851290694</v>
@@ -9258,10 +9258,10 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P18" t="n">
-        <v>271.7367317161663</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q18" t="n">
-        <v>100.5521054083636</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R18" t="n">
         <v>47.34253660377365</v>
@@ -9419,7 +9419,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q20" t="n">
-        <v>220.807590286301</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R20" t="n">
         <v>68.34507666790174</v>
@@ -9480,19 +9480,19 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K21" t="n">
-        <v>88.94325252954214</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L21" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M21" t="n">
-        <v>484.3332662999999</v>
+        <v>86.77858052365455</v>
       </c>
       <c r="N21" t="n">
         <v>480.9863851290694</v>
       </c>
       <c r="O21" t="n">
-        <v>198.1627202349929</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P21" t="n">
         <v>331.2012793855346</v>
@@ -9720,22 +9720,22 @@
         <v>275.0438464930818</v>
       </c>
       <c r="L24" t="n">
-        <v>140.1088174826899</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M24" t="n">
         <v>484.3332662999999</v>
       </c>
       <c r="N24" t="n">
-        <v>480.9863851290694</v>
+        <v>480.9863851290693</v>
       </c>
       <c r="O24" t="n">
-        <v>409.6168120477987</v>
+        <v>72.0611124439092</v>
       </c>
       <c r="P24" t="n">
-        <v>331.2012793855346</v>
+        <v>305.2635635195966</v>
       </c>
       <c r="Q24" t="n">
-        <v>100.5521054083636</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R24" t="n">
         <v>47.34253660377365</v>
@@ -10668,7 +10668,7 @@
         <v>275.0438464930818</v>
       </c>
       <c r="L36" t="n">
-        <v>385.6739591155975</v>
+        <v>383.4981626349874</v>
       </c>
       <c r="M36" t="n">
         <v>484.3332662999999</v>
@@ -10677,10 +10677,10 @@
         <v>489.015156525477</v>
       </c>
       <c r="O36" t="n">
-        <v>72.06111244390918</v>
+        <v>72.0611124439092</v>
       </c>
       <c r="P36" t="n">
-        <v>329.0254829049245</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q36" t="n">
         <v>218.4803792452831</v>
@@ -10902,19 +10902,19 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K39" t="n">
-        <v>275.0438464930818</v>
+        <v>88.94325252954215</v>
       </c>
       <c r="L39" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M39" t="n">
-        <v>110.5404999089821</v>
+        <v>484.3332662999999</v>
       </c>
       <c r="N39" t="n">
         <v>489.015156525477</v>
       </c>
       <c r="O39" t="n">
-        <v>409.6168120477987</v>
+        <v>221.9246396203206</v>
       </c>
       <c r="P39" t="n">
         <v>331.2012793855346</v>
@@ -11136,7 +11136,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J42" t="n">
-        <v>103.1190450737982</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K42" t="n">
         <v>275.0438464930818</v>
@@ -11148,7 +11148,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N42" t="n">
-        <v>498.5160693172957</v>
+        <v>470.5004376370679</v>
       </c>
       <c r="O42" t="n">
         <v>409.6168120477987</v>
@@ -11388,10 +11388,10 @@
         <v>498.5160693172957</v>
       </c>
       <c r="O45" t="n">
-        <v>409.6168120477987</v>
+        <v>381.6011803675709</v>
       </c>
       <c r="P45" t="n">
-        <v>303.1856477053075</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q45" t="n">
         <v>218.4803792452831</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>261.6938579839128</v>
       </c>
       <c r="C11" t="n">
-        <v>244.9625436714604</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>234.5821807471161</v>
       </c>
       <c r="E11" t="n">
-        <v>119.2762544920059</v>
+        <v>11.38796853781826</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>292.306137003043</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>62.92019570772389</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>71.85443390360342</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>129.4131254575977</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>206.5106695150371</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>4.128284212118036</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.128284212118018</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>179.1933424527594</v>
+        <v>261.6938579839128</v>
       </c>
       <c r="C14" t="n">
-        <v>244.9625436714603</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>234.5821807471161</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>261.0954837478051</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>285.2713114730586</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>292.306137003043</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>62.92019570772389</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>71.85443390360336</v>
+        <v>68.71022646615992</v>
       </c>
       <c r="T14" t="n">
-        <v>98.63966577724234</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>129.4131254575977</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>228.5075649930723</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>248.8390471236871</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>4.128284212118036</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>4.128284212116981</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23738,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>-5.115907697472721e-13</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1067683.313981416</v>
+        <v>1067683.313981415</v>
       </c>
     </row>
     <row r="7">
@@ -26314,19 +26314,19 @@
         <v>324862.5511022962</v>
       </c>
       <c r="C2" t="n">
-        <v>324862.5511022964</v>
+        <v>324862.5511022963</v>
       </c>
       <c r="D2" t="n">
         <v>324862.5511022962</v>
       </c>
       <c r="E2" t="n">
-        <v>279415.9047480377</v>
+        <v>279415.9047480379</v>
       </c>
       <c r="F2" t="n">
         <v>279415.9047480378</v>
       </c>
       <c r="G2" t="n">
-        <v>325567.7634459745</v>
+        <v>325567.7634459746</v>
       </c>
       <c r="H2" t="n">
         <v>325567.7634459744</v>
@@ -26335,25 +26335,25 @@
         <v>325567.7634459745</v>
       </c>
       <c r="J2" t="n">
-        <v>325567.7634459742</v>
+        <v>325567.7634459746</v>
       </c>
       <c r="K2" t="n">
         <v>325567.7634459742</v>
       </c>
       <c r="L2" t="n">
-        <v>325567.7634459745</v>
+        <v>325567.7634459746</v>
       </c>
       <c r="M2" t="n">
-        <v>325567.7634459747</v>
+        <v>325567.7634459748</v>
       </c>
       <c r="N2" t="n">
-        <v>325567.7634459749</v>
+        <v>325567.7634459748</v>
       </c>
       <c r="O2" t="n">
         <v>325567.7634459745</v>
       </c>
       <c r="P2" t="n">
-        <v>325567.7634459745</v>
+        <v>325567.7634459744</v>
       </c>
     </row>
     <row r="3">
@@ -26375,10 +26375,10 @@
         <v>329987.2062029916</v>
       </c>
       <c r="F3" t="n">
-        <v>6.821210263296962e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>80988.93635747247</v>
+        <v>80988.93635747254</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,19 +26390,19 @@
         <v>110025.3308063923</v>
       </c>
       <c r="K3" t="n">
-        <v>5.5409215677243e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>80988.9363574725</v>
+        <v>80988.93635747259</v>
       </c>
       <c r="M3" t="n">
-        <v>97387.39977618618</v>
+        <v>97387.3997761862</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>32864.76537852325</v>
+        <v>32864.76537852318</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,19 +26427,19 @@
         <v>277460.6410902854</v>
       </c>
       <c r="F4" t="n">
-        <v>277460.6410902854</v>
+        <v>277460.6410902853</v>
       </c>
       <c r="G4" t="n">
         <v>343055.0800003024</v>
       </c>
       <c r="H4" t="n">
-        <v>343055.0800003024</v>
+        <v>343055.0800003025</v>
       </c>
       <c r="I4" t="n">
-        <v>343055.0800003024</v>
+        <v>343055.0800003025</v>
       </c>
       <c r="J4" t="n">
-        <v>340754.2524869654</v>
+        <v>340754.2524869653</v>
       </c>
       <c r="K4" t="n">
         <v>340754.2524869653</v>
@@ -26448,10 +26448,10 @@
         <v>340754.2524869654</v>
       </c>
       <c r="M4" t="n">
+        <v>342807.3727968181</v>
+      </c>
+      <c r="N4" t="n">
         <v>342807.3727968182</v>
-      </c>
-      <c r="N4" t="n">
-        <v>342807.3727968181</v>
       </c>
       <c r="O4" t="n">
         <v>340039.2336305073</v>
@@ -26479,7 +26479,7 @@
         <v>39020.12398743366</v>
       </c>
       <c r="F5" t="n">
-        <v>39020.12398743367</v>
+        <v>39020.12398743366</v>
       </c>
       <c r="G5" t="n">
         <v>47530.94760072911</v>
@@ -26491,13 +26491,13 @@
         <v>47530.94760072911</v>
       </c>
       <c r="J5" t="n">
-        <v>58677.5251302165</v>
+        <v>58677.52513021648</v>
       </c>
       <c r="K5" t="n">
-        <v>58677.5251302165</v>
+        <v>58677.52513021648</v>
       </c>
       <c r="L5" t="n">
-        <v>58677.5251302165</v>
+        <v>58677.52513021649</v>
       </c>
       <c r="M5" t="n">
         <v>47800.81135056224</v>
@@ -26506,7 +26506,7 @@
         <v>47800.81135056224</v>
       </c>
       <c r="O5" t="n">
-        <v>51004.33436444184</v>
+        <v>51004.33436444183</v>
       </c>
       <c r="P5" t="n">
         <v>51004.33436444183</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-125470.7096969094</v>
+        <v>-125475.1172740574</v>
       </c>
       <c r="C6" t="n">
-        <v>-125470.7096969093</v>
+        <v>-125475.1172740573</v>
       </c>
       <c r="D6" t="n">
-        <v>-125470.7096969094</v>
+        <v>-125475.1172740574</v>
       </c>
       <c r="E6" t="n">
-        <v>-367052.0665326729</v>
+        <v>-367340.5156495348</v>
       </c>
       <c r="F6" t="n">
-        <v>-37064.86032968136</v>
+        <v>-37353.30944654329</v>
       </c>
       <c r="G6" t="n">
         <v>-146007.2005125295</v>
       </c>
       <c r="H6" t="n">
+        <v>-65018.26415505713</v>
+      </c>
+      <c r="I6" t="n">
         <v>-65018.26415505707</v>
       </c>
-      <c r="I6" t="n">
-        <v>-65018.26415505701</v>
-      </c>
       <c r="J6" t="n">
-        <v>-183889.3449776</v>
+        <v>-183889.3449775995</v>
       </c>
       <c r="K6" t="n">
-        <v>-73864.01417120761</v>
+        <v>-73864.01417120754</v>
       </c>
       <c r="L6" t="n">
         <v>-154852.9505286799</v>
       </c>
       <c r="M6" t="n">
-        <v>-162427.8204775919</v>
+        <v>-162427.8204775918</v>
       </c>
       <c r="N6" t="n">
-        <v>-65040.42070140554</v>
+        <v>-65040.42070140565</v>
       </c>
       <c r="O6" t="n">
-        <v>-98340.56992749791</v>
+        <v>-98340.5699274978</v>
       </c>
       <c r="P6" t="n">
-        <v>-65475.80454897459</v>
+        <v>-65475.80454897469</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>122.0225520074822</v>
+        <v>122.0225520074823</v>
       </c>
       <c r="F2" t="n">
         <v>122.0225520074823</v>
@@ -26725,7 +26725,7 @@
         <v>193.8769859110857</v>
       </c>
       <c r="P2" t="n">
-        <v>193.8769859110856</v>
+        <v>193.8769859110857</v>
       </c>
     </row>
     <row r="3">
@@ -26808,16 +26808,16 @@
         <v>426.1353503440489</v>
       </c>
       <c r="I4" t="n">
-        <v>426.1353503440489</v>
+        <v>426.1353503440488</v>
       </c>
       <c r="J4" t="n">
-        <v>721.6704723748036</v>
+        <v>721.6704723748035</v>
       </c>
       <c r="K4" t="n">
-        <v>721.6704723748036</v>
+        <v>721.6704723748035</v>
       </c>
       <c r="L4" t="n">
-        <v>721.6704723748036</v>
+        <v>721.6704723748035</v>
       </c>
       <c r="M4" t="n">
         <v>434.1641217404565</v>
@@ -26826,10 +26826,10 @@
         <v>434.1641217404565</v>
       </c>
       <c r="O4" t="n">
-        <v>523.8899551658604</v>
+        <v>523.8899551658602</v>
       </c>
       <c r="P4" t="n">
-        <v>523.8899551658604</v>
+        <v>523.8899551658602</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>122.0225520074822</v>
+        <v>122.0225520074823</v>
       </c>
       <c r="F2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>101.2361704468406</v>
+        <v>101.2361704468407</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>40.87542417222194</v>
+        <v>40.8754241722219</v>
       </c>
       <c r="K2" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>101.2361704468406</v>
+        <v>101.2361704468407</v>
       </c>
       <c r="M2" t="n">
-        <v>78.55062316566207</v>
+        <v>78.55062316566205</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>14.09019229858295</v>
+        <v>14.09019229858293</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>138.6289997097018</v>
+        <v>138.6289997097019</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>89.72583342540395</v>
+        <v>89.72583342540372</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>122.0225520074822</v>
+        <v>122.0225520074823</v>
       </c>
       <c r="K2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>101.2361704468406</v>
+        <v>101.2361704468407</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>40.87542417222194</v>
+        <v>40.8754241722219</v>
       </c>
       <c r="P2" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>122.0225520074822</v>
+        <v>122.0225520074823</v>
       </c>
       <c r="C11" t="n">
-        <v>122.0225520074822</v>
+        <v>122.0225520074823</v>
       </c>
       <c r="D11" t="n">
-        <v>122.0225520074822</v>
+        <v>122.0225520074823</v>
       </c>
       <c r="E11" t="n">
-        <v>122.0225520074822</v>
+        <v>122.0225520074823</v>
       </c>
       <c r="F11" t="n">
-        <v>122.0225520074822</v>
+        <v>122.0225520074823</v>
       </c>
       <c r="G11" t="n">
-        <v>122.0225520074822</v>
+        <v>122.0225520074823</v>
       </c>
       <c r="H11" t="n">
-        <v>122.0225520074822</v>
+        <v>122.0225520074823</v>
       </c>
       <c r="I11" t="n">
-        <v>122.0225520074822</v>
+        <v>122.0225520074823</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>108.8046764598881</v>
       </c>
       <c r="S11" t="n">
-        <v>122.0225520074822</v>
+        <v>122.0225520074823</v>
       </c>
       <c r="T11" t="n">
-        <v>122.0225520074822</v>
+        <v>122.0225520074823</v>
       </c>
       <c r="U11" t="n">
-        <v>122.0225520074822</v>
+        <v>122.0225520074823</v>
       </c>
       <c r="V11" t="n">
-        <v>122.0225520074822</v>
+        <v>122.0225520074823</v>
       </c>
       <c r="W11" t="n">
-        <v>122.0225520074822</v>
+        <v>122.0225520074823</v>
       </c>
       <c r="X11" t="n">
-        <v>122.0225520074822</v>
+        <v>122.0225520074823</v>
       </c>
       <c r="Y11" t="n">
-        <v>122.0225520074822</v>
+        <v>122.0225520074823</v>
       </c>
     </row>
     <row r="12">
@@ -28169,22 +28169,22 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>122.0225520074822</v>
+        <v>122.0225520074823</v>
       </c>
       <c r="D12" t="n">
-        <v>122.0225520074822</v>
+        <v>122.0225520074823</v>
       </c>
       <c r="E12" t="n">
-        <v>122.0225520074822</v>
+        <v>122.0225520074823</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>122.0225520074823</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>25.29111577186984</v>
+        <v>107.7440529821119</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -28214,28 +28214,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>77.21879642024862</v>
       </c>
       <c r="S12" t="n">
-        <v>122.0225520074822</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>122.0225520074822</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>122.0225520074823</v>
       </c>
       <c r="W12" t="n">
-        <v>122.0225520074822</v>
+        <v>84.37337038447356</v>
       </c>
       <c r="X12" t="n">
-        <v>122.0225520074822</v>
+        <v>122.0225520074823</v>
       </c>
       <c r="Y12" t="n">
-        <v>122.0225520074822</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>122.0225520074822</v>
+        <v>122.0225520074823</v>
       </c>
       <c r="C13" t="n">
-        <v>122.0225520074822</v>
+        <v>122.0225520074823</v>
       </c>
       <c r="D13" t="n">
-        <v>122.0225520074822</v>
+        <v>122.0225520074823</v>
       </c>
       <c r="E13" t="n">
-        <v>122.0225520074822</v>
+        <v>122.0225520074823</v>
       </c>
       <c r="F13" t="n">
-        <v>122.0225520074822</v>
+        <v>122.0225520074823</v>
       </c>
       <c r="G13" t="n">
-        <v>122.0225520074822</v>
+        <v>122.0225520074823</v>
       </c>
       <c r="H13" t="n">
-        <v>122.0225520074822</v>
+        <v>122.0225520074823</v>
       </c>
       <c r="I13" t="n">
-        <v>122.0225520074822</v>
+        <v>122.0225520074823</v>
       </c>
       <c r="J13" t="n">
-        <v>122.0225520074822</v>
+        <v>122.0225520074823</v>
       </c>
       <c r="K13" t="n">
-        <v>122.0225520074822</v>
+        <v>122.0225520074823</v>
       </c>
       <c r="L13" t="n">
-        <v>122.0225520074822</v>
+        <v>122.0225520074823</v>
       </c>
       <c r="M13" t="n">
-        <v>122.0225520074822</v>
+        <v>122.0225520074823</v>
       </c>
       <c r="N13" t="n">
-        <v>122.0225520074822</v>
+        <v>122.0225520074823</v>
       </c>
       <c r="O13" t="n">
-        <v>122.0225520074822</v>
+        <v>122.0225520074823</v>
       </c>
       <c r="P13" t="n">
-        <v>122.0225520074822</v>
+        <v>122.0225520074823</v>
       </c>
       <c r="Q13" t="n">
-        <v>122.0225520074822</v>
+        <v>122.0225520074823</v>
       </c>
       <c r="R13" t="n">
-        <v>122.0225520074822</v>
+        <v>122.0225520074823</v>
       </c>
       <c r="S13" t="n">
-        <v>122.0225520074822</v>
+        <v>122.0225520074823</v>
       </c>
       <c r="T13" t="n">
-        <v>122.0225520074822</v>
+        <v>122.0225520074823</v>
       </c>
       <c r="U13" t="n">
-        <v>122.0225520074822</v>
+        <v>122.0225520074823</v>
       </c>
       <c r="V13" t="n">
-        <v>122.0225520074822</v>
+        <v>122.0225520074823</v>
       </c>
       <c r="W13" t="n">
-        <v>122.0225520074822</v>
+        <v>122.0225520074823</v>
       </c>
       <c r="X13" t="n">
-        <v>122.0225520074822</v>
+        <v>122.0225520074823</v>
       </c>
       <c r="Y13" t="n">
-        <v>122.0225520074822</v>
+        <v>122.0225520074823</v>
       </c>
     </row>
     <row r="14">
@@ -28403,10 +28403,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>122.0225520074823</v>
       </c>
       <c r="C15" t="n">
-        <v>39.56961479723967</v>
+        <v>122.0225520074823</v>
       </c>
       <c r="D15" t="n">
         <v>122.0225520074823</v>
@@ -28421,10 +28421,10 @@
         <v>122.0225520074823</v>
       </c>
       <c r="H15" t="n">
-        <v>107.7440529821119</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>76.81238500081962</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28454,22 +28454,22 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>70.50128277853212</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>122.0225520074823</v>
       </c>
       <c r="V15" t="n">
-        <v>122.0225520074823</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>122.0225520074823</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>122.0225520074823</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -28640,7 +28640,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -28649,7 +28649,7 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F18" t="n">
         <v>143.5062320835493</v>
@@ -28658,10 +28658,10 @@
         <v>135.7417345196995</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>107.7440529821119</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>76.81238500081962</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28691,7 +28691,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>12.2625475094049</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -28700,16 +28700,16 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>223.2587224543229</v>
       </c>
       <c r="W18" t="n">
-        <v>207.0678646249025</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -28773,13 +28773,13 @@
         <v>218.2449233395488</v>
       </c>
       <c r="T19" t="n">
-        <v>223.2587224543229</v>
+        <v>27.49756984013095</v>
       </c>
       <c r="U19" t="n">
         <v>223.2587224543229</v>
       </c>
       <c r="V19" t="n">
-        <v>27.49756984013112</v>
+        <v>223.2587224543229</v>
       </c>
       <c r="W19" t="n">
         <v>223.2587224543229</v>
@@ -28877,13 +28877,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D21" t="n">
-        <v>90.04229552201409</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E21" t="n">
         <v>156.0334337071738</v>
@@ -28898,7 +28898,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>76.81238500081962</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28925,7 +28925,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>77.21879642024862</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -28934,13 +28934,13 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
         <v>223.2587224543229</v>
       </c>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
       <c r="W21" t="n">
-        <v>223.2587224543229</v>
+        <v>7.503954663566645</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -29016,7 +29016,7 @@
         <v>223.2587224543229</v>
       </c>
       <c r="V22" t="n">
-        <v>223.2587224543229</v>
+        <v>27.49756984013112</v>
       </c>
       <c r="W22" t="n">
         <v>223.2587224543229</v>
@@ -29025,7 +29025,7 @@
         <v>223.2587224543229</v>
       </c>
       <c r="Y22" t="n">
-        <v>22.98752125357646</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="23">
@@ -29077,7 +29077,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>-3.694822225952521e-13</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -29120,13 +29120,13 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F24" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -29135,7 +29135,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>42.40457781060197</v>
+        <v>76.81238500081962</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29162,13 +29162,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>36.6344541148806</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>197.2479873695406</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -29177,13 +29177,13 @@
         <v>223.2587224543229</v>
       </c>
       <c r="W24" t="n">
-        <v>223.2587224543229</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -29241,10 +29241,10 @@
         <v>60.00061294779459</v>
       </c>
       <c r="R25" t="n">
-        <v>162.7806395874728</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>22.483770725357</v>
+        <v>218.2449233395488</v>
       </c>
       <c r="T25" t="n">
         <v>223.2587224543229</v>
@@ -29253,7 +29253,7 @@
         <v>223.2587224543229</v>
       </c>
       <c r="V25" t="n">
-        <v>223.2587224543229</v>
+        <v>190.2782094276039</v>
       </c>
       <c r="W25" t="n">
         <v>223.2587224543229</v>
@@ -29351,10 +29351,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>26.20096235320079</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -29369,10 +29369,10 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>107.7440529821119</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>76.81238500081962</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29402,22 +29402,22 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>142.1115946190626</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>142.1115946190626</v>
       </c>
       <c r="U27" t="n">
-        <v>142.1115946190626</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>142.1115946190626</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>125.8677136083945</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -29460,22 +29460,22 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>142.1115946190626</v>
+        <v>11.84016194505828</v>
       </c>
       <c r="M28" t="n">
         <v>142.1115946190626</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="O28" t="n">
-        <v>93.95114361632591</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
         <v>142.1115946190626</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>60.00061294779459</v>
       </c>
       <c r="R28" t="n">
         <v>142.1115946190626</v>
@@ -29597,19 +29597,19 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>107.7440529821119</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>60.56850399015151</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29636,16 +29636,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>77.21879642024862</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>142.1115946190626</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>142.1115946190626</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -29654,7 +29654,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>91.09376055201469</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -29691,16 +29691,16 @@
         <v>142.1115946190626</v>
       </c>
       <c r="J31" t="n">
-        <v>83.99523789667049</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="K31" t="n">
-        <v>142.1115946190626</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>83.99523789667053</v>
       </c>
       <c r="N31" t="n">
         <v>142.1115946190626</v>
@@ -29776,7 +29776,7 @@
         <v>142.1115946190626</v>
       </c>
       <c r="L32" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190619</v>
       </c>
       <c r="M32" t="n">
         <v>142.1115946190626</v>
@@ -29794,7 +29794,7 @@
         <v>142.1115946190626</v>
       </c>
       <c r="R32" t="n">
-        <v>142.1115946190631</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="S32" t="n">
         <v>142.1115946190626</v>
@@ -29825,25 +29825,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>125.8677136083944</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="G33" t="n">
-        <v>135.7417345196995</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>97.87003207080706</v>
+        <v>107.7440529821119</v>
       </c>
       <c r="I33" t="n">
         <v>76.81238500081962</v>
@@ -29876,7 +29876,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>142.1115946190626</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -29888,7 +29888,7 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>142.1115946190626</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -29931,25 +29931,25 @@
         <v>142.1115946190626</v>
       </c>
       <c r="K34" t="n">
+        <v>83.99523789666918</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
         <v>142.1115946190626</v>
       </c>
-      <c r="L34" t="n">
-        <v>23.99462494887541</v>
-      </c>
-      <c r="M34" t="n">
+      <c r="P34" t="n">
         <v>142.1115946190626</v>
       </c>
-      <c r="N34" t="n">
+      <c r="Q34" t="n">
         <v>142.1115946190626</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>60.00061294779459</v>
       </c>
       <c r="R34" t="n">
         <v>142.1115946190626</v>
@@ -30010,7 +30010,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>31.7906907817349</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -30022,7 +30022,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>31.79069078173495</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -30062,7 +30062,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -30071,13 +30071,13 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F36" t="n">
         <v>143.5062320835493</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>135.7417345196995</v>
       </c>
       <c r="H36" t="n">
         <v>107.7440529821119</v>
@@ -30113,25 +30113,25 @@
         <v>77.21879642024862</v>
       </c>
       <c r="S36" t="n">
-        <v>163.7333265046506</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>220.6622177847247</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>52.59462329822156</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>31.46492758634588</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -30144,7 +30144,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D37" t="n">
         <v>149.0055665145194</v>
@@ -30186,16 +30186,16 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>60.00061294779459</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>162.7806395874728</v>
+        <v>40.0026232690668</v>
       </c>
       <c r="S37" t="n">
         <v>218.2449233395488</v>
       </c>
       <c r="T37" t="n">
-        <v>205.2201414497264</v>
+        <v>220.6622177847247</v>
       </c>
       <c r="U37" t="n">
         <v>220.6622177847247</v>
@@ -30247,7 +30247,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>31.79069078173487</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -30268,7 +30268,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>108.8046764598881</v>
+        <v>140.5953672416232</v>
       </c>
       <c r="S38" t="n">
         <v>193.8769859110857</v>
@@ -30299,10 +30299,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>26.18642848451938</v>
       </c>
       <c r="C39" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -30311,13 +30311,13 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>135.7417345196995</v>
       </c>
       <c r="H39" t="n">
-        <v>107.7440529821119</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>76.81238500081962</v>
@@ -30347,28 +30347,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>77.21879642024862</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>163.7333265046506</v>
       </c>
       <c r="T39" t="n">
-        <v>197.2479873695406</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>220.6622177847247</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>220.6622177847247</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>119.6024523117028</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="40">
@@ -30429,7 +30429,7 @@
         <v>162.7806395874728</v>
       </c>
       <c r="S40" t="n">
-        <v>35.46629407334825</v>
+        <v>218.2449233395488</v>
       </c>
       <c r="T40" t="n">
         <v>220.6622177847247</v>
@@ -30438,7 +30438,7 @@
         <v>220.6622177847247</v>
       </c>
       <c r="V40" t="n">
-        <v>220.6622177847247</v>
+        <v>37.88358851852414</v>
       </c>
       <c r="W40" t="n">
         <v>220.6622177847247</v>
@@ -30484,13 +30484,13 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>193.8769859110857</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>188.6090462338667</v>
+        <v>188.6090462338665</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -30499,13 +30499,13 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>193.8769859110857</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>4.58270613939272</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>108.8046764598881</v>
+        <v>113.3873825992796</v>
       </c>
       <c r="S41" t="n">
         <v>193.8769859110857</v>
@@ -30539,13 +30539,13 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>68.70931909176102</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D42" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>143.5062320835493</v>
@@ -30557,7 +30557,7 @@
         <v>107.7440529821119</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>76.81238500081962</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30605,7 +30605,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>123.0172074453607</v>
       </c>
     </row>
     <row r="43">
@@ -30636,7 +30636,7 @@
         <v>159.5359974224836</v>
       </c>
       <c r="I43" t="n">
-        <v>147.0570081685329</v>
+        <v>146.661991856789</v>
       </c>
       <c r="J43" t="n">
         <v>72.1550759516121</v>
@@ -30654,7 +30654,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>0.3950163117435324</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -30694,46 +30694,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>193.8769859110856</v>
+        <v>193.8769859110857</v>
       </c>
       <c r="C44" t="n">
-        <v>193.8769859110856</v>
+        <v>193.8769859110857</v>
       </c>
       <c r="D44" t="n">
-        <v>193.8769859110856</v>
+        <v>193.8769859110857</v>
       </c>
       <c r="E44" t="n">
-        <v>193.8769859110856</v>
+        <v>193.8769859110857</v>
       </c>
       <c r="F44" t="n">
-        <v>193.8769859110856</v>
+        <v>193.8769859110857</v>
       </c>
       <c r="G44" t="n">
-        <v>193.8769859110856</v>
+        <v>193.8769859110857</v>
       </c>
       <c r="H44" t="n">
-        <v>193.8769859110856</v>
+        <v>193.8769859110857</v>
       </c>
       <c r="I44" t="n">
-        <v>193.8769859110856</v>
+        <v>184.9427477152062</v>
       </c>
       <c r="J44" t="n">
-        <v>184.2575141773794</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>193.191752373258</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>193.8769859110856</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>193.8769859110857</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>108.8046764598881</v>
       </c>
       <c r="S44" t="n">
-        <v>193.8769859110856</v>
+        <v>193.8769859110857</v>
       </c>
       <c r="T44" t="n">
-        <v>193.8769859110856</v>
+        <v>193.8769859110857</v>
       </c>
       <c r="U44" t="n">
-        <v>193.8769859110856</v>
+        <v>193.8769859110857</v>
       </c>
       <c r="V44" t="n">
-        <v>193.8769859110856</v>
+        <v>193.8769859110857</v>
       </c>
       <c r="W44" t="n">
-        <v>193.8769859110856</v>
+        <v>193.8769859110857</v>
       </c>
       <c r="X44" t="n">
-        <v>193.8769859110856</v>
+        <v>193.8769859110857</v>
       </c>
       <c r="Y44" t="n">
-        <v>193.8769859110856</v>
+        <v>193.8769859110857</v>
       </c>
     </row>
     <row r="45">
@@ -30782,16 +30782,16 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>87.63860383805147</v>
       </c>
       <c r="G45" t="n">
-        <v>135.7417345196995</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>107.7440529821119</v>
       </c>
       <c r="I45" t="n">
         <v>76.81238500081962</v>
@@ -30824,16 +30824,16 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>163.7333265046506</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>193.8769859110856</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>193.8769859110857</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -30842,7 +30842,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>51.94102950298645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -30864,7 +30864,7 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F46" t="n">
-        <v>146.5540377215487</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G46" t="n">
         <v>167.6536091708978</v>
@@ -30900,28 +30900,28 @@
         <v>60.00061294779459</v>
       </c>
       <c r="R46" t="n">
-        <v>162.7806395874728</v>
+        <v>163.1756558992163</v>
       </c>
       <c r="S46" t="n">
-        <v>193.8769859110856</v>
+        <v>193.8769859110857</v>
       </c>
       <c r="T46" t="n">
-        <v>193.8769859110856</v>
+        <v>193.8769859110857</v>
       </c>
       <c r="U46" t="n">
-        <v>193.8769859110856</v>
+        <v>193.8769859110857</v>
       </c>
       <c r="V46" t="n">
-        <v>193.8769859110856</v>
+        <v>193.8769859110857</v>
       </c>
       <c r="W46" t="n">
-        <v>193.8769859110856</v>
+        <v>193.8769859110857</v>
       </c>
       <c r="X46" t="n">
-        <v>193.8769859110856</v>
+        <v>193.8769859110857</v>
       </c>
       <c r="Y46" t="n">
-        <v>193.8769859110856</v>
+        <v>193.8769859110857</v>
       </c>
     </row>
   </sheetData>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5260763933056958</v>
+        <v>0.5260763933056957</v>
       </c>
       <c r="H20" t="n">
-        <v>5.387679862941959</v>
+        <v>5.387679862941957</v>
       </c>
       <c r="I20" t="n">
         <v>20.28156015291786</v>
       </c>
       <c r="J20" t="n">
-        <v>44.65007628632934</v>
+        <v>44.65007628632933</v>
       </c>
       <c r="K20" t="n">
-        <v>66.91889001495946</v>
+        <v>66.91889001495944</v>
       </c>
       <c r="L20" t="n">
-        <v>83.01880043658866</v>
+        <v>83.01880043658865</v>
       </c>
       <c r="M20" t="n">
-        <v>92.37441149603883</v>
+        <v>92.3744114960388</v>
       </c>
       <c r="N20" t="n">
-        <v>93.86912604851865</v>
+        <v>93.86912604851862</v>
       </c>
       <c r="O20" t="n">
-        <v>88.63795391258513</v>
+        <v>88.6379539125851</v>
       </c>
       <c r="P20" t="n">
-        <v>75.65044295285075</v>
+        <v>75.65044295285074</v>
       </c>
       <c r="Q20" t="n">
-        <v>56.8103321175905</v>
+        <v>56.81033211759048</v>
       </c>
       <c r="R20" t="n">
-        <v>33.04614624098895</v>
+        <v>33.04614624098894</v>
       </c>
       <c r="S20" t="n">
-        <v>11.98796581245356</v>
+        <v>11.98796581245355</v>
       </c>
       <c r="T20" t="n">
-        <v>2.302899411695685</v>
+        <v>2.302899411695684</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04208611146445566</v>
+        <v>0.04208611146445565</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,40 +32543,40 @@
         <v>0.28147568534276</v>
       </c>
       <c r="H21" t="n">
-        <v>2.718462540020867</v>
+        <v>2.718462540020866</v>
       </c>
       <c r="I21" t="n">
-        <v>9.691158464652046</v>
+        <v>9.691158464652043</v>
       </c>
       <c r="J21" t="n">
-        <v>26.59327955249296</v>
+        <v>26.59327955249295</v>
       </c>
       <c r="K21" t="n">
-        <v>45.45215047045788</v>
+        <v>45.45215047045787</v>
       </c>
       <c r="L21" t="n">
-        <v>61.11602545128656</v>
+        <v>61.11602545128655</v>
       </c>
       <c r="M21" t="n">
-        <v>71.3195190449616</v>
+        <v>71.31951904496158</v>
       </c>
       <c r="N21" t="n">
-        <v>73.2071344962295</v>
+        <v>73.20713449622949</v>
       </c>
       <c r="O21" t="n">
-        <v>66.97022588942413</v>
+        <v>66.97022588942411</v>
       </c>
       <c r="P21" t="n">
-        <v>53.74951047567144</v>
+        <v>53.74951047567142</v>
       </c>
       <c r="Q21" t="n">
-        <v>35.93012432550741</v>
+        <v>35.9301243255074</v>
       </c>
       <c r="R21" t="n">
         <v>17.4761833408426</v>
       </c>
       <c r="S21" t="n">
-        <v>5.228287400993807</v>
+        <v>5.228287400993805</v>
       </c>
       <c r="T21" t="n">
         <v>1.134544538728054</v>
@@ -32622,31 +32622,31 @@
         <v>0.2359797592102805</v>
       </c>
       <c r="H22" t="n">
-        <v>2.098074586433223</v>
+        <v>2.098074586433222</v>
       </c>
       <c r="I22" t="n">
-        <v>7.09655494061462</v>
+        <v>7.096554940614618</v>
       </c>
       <c r="J22" t="n">
         <v>16.68376897616683</v>
       </c>
       <c r="K22" t="n">
-        <v>27.41655747915804</v>
+        <v>27.41655747915803</v>
       </c>
       <c r="L22" t="n">
-        <v>35.08375438295389</v>
+        <v>35.08375438295388</v>
       </c>
       <c r="M22" t="n">
-        <v>36.9908998914806</v>
+        <v>36.99089989148059</v>
       </c>
       <c r="N22" t="n">
-        <v>36.11133897078777</v>
+        <v>36.11133897078776</v>
       </c>
       <c r="O22" t="n">
-        <v>33.35466632910403</v>
+        <v>33.35466632910402</v>
       </c>
       <c r="P22" t="n">
-        <v>28.54067924121428</v>
+        <v>28.54067924121427</v>
       </c>
       <c r="Q22" t="n">
         <v>19.76008692805358</v>
@@ -32655,7 +32655,7 @@
         <v>10.61050808230952</v>
       </c>
       <c r="S22" t="n">
-        <v>4.112483621873706</v>
+        <v>4.112483621873705</v>
       </c>
       <c r="T22" t="n">
         <v>1.00827715298938</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5260763933056958</v>
+        <v>0.5260763933056957</v>
       </c>
       <c r="H23" t="n">
-        <v>5.387679862941959</v>
+        <v>5.387679862941957</v>
       </c>
       <c r="I23" t="n">
         <v>20.28156015291786</v>
       </c>
       <c r="J23" t="n">
-        <v>44.65007628632934</v>
+        <v>44.65007628632933</v>
       </c>
       <c r="K23" t="n">
-        <v>66.91889001495946</v>
+        <v>66.91889001495944</v>
       </c>
       <c r="L23" t="n">
-        <v>83.01880043658866</v>
+        <v>83.01880043658865</v>
       </c>
       <c r="M23" t="n">
-        <v>92.37441149603883</v>
+        <v>92.3744114960388</v>
       </c>
       <c r="N23" t="n">
-        <v>93.86912604851865</v>
+        <v>93.86912604851862</v>
       </c>
       <c r="O23" t="n">
-        <v>88.63795391258513</v>
+        <v>88.6379539125851</v>
       </c>
       <c r="P23" t="n">
-        <v>75.65044295285075</v>
+        <v>75.65044295285074</v>
       </c>
       <c r="Q23" t="n">
-        <v>56.8103321175905</v>
+        <v>56.81033211759048</v>
       </c>
       <c r="R23" t="n">
-        <v>33.04614624098895</v>
+        <v>33.04614624098894</v>
       </c>
       <c r="S23" t="n">
-        <v>11.98796581245356</v>
+        <v>11.98796581245355</v>
       </c>
       <c r="T23" t="n">
-        <v>2.302899411695685</v>
+        <v>2.302899411695684</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04208611146445566</v>
+        <v>0.04208611146445565</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32780,40 +32780,40 @@
         <v>0.28147568534276</v>
       </c>
       <c r="H24" t="n">
-        <v>2.718462540020867</v>
+        <v>2.718462540020866</v>
       </c>
       <c r="I24" t="n">
-        <v>9.691158464652046</v>
+        <v>9.691158464652043</v>
       </c>
       <c r="J24" t="n">
-        <v>26.59327955249296</v>
+        <v>26.59327955249295</v>
       </c>
       <c r="K24" t="n">
-        <v>45.45215047045788</v>
+        <v>45.45215047045787</v>
       </c>
       <c r="L24" t="n">
-        <v>61.11602545128656</v>
+        <v>61.11602545128655</v>
       </c>
       <c r="M24" t="n">
-        <v>71.3195190449616</v>
+        <v>71.31951904496158</v>
       </c>
       <c r="N24" t="n">
-        <v>73.2071344962295</v>
+        <v>73.20713449622949</v>
       </c>
       <c r="O24" t="n">
-        <v>66.97022588942413</v>
+        <v>66.97022588942411</v>
       </c>
       <c r="P24" t="n">
-        <v>53.74951047567144</v>
+        <v>53.74951047567142</v>
       </c>
       <c r="Q24" t="n">
-        <v>35.93012432550741</v>
+        <v>35.9301243255074</v>
       </c>
       <c r="R24" t="n">
         <v>17.4761833408426</v>
       </c>
       <c r="S24" t="n">
-        <v>5.228287400993807</v>
+        <v>5.228287400993805</v>
       </c>
       <c r="T24" t="n">
         <v>1.134544538728054</v>
@@ -32859,31 +32859,31 @@
         <v>0.2359797592102805</v>
       </c>
       <c r="H25" t="n">
-        <v>2.098074586433223</v>
+        <v>2.098074586433222</v>
       </c>
       <c r="I25" t="n">
-        <v>7.09655494061462</v>
+        <v>7.096554940614618</v>
       </c>
       <c r="J25" t="n">
         <v>16.68376897616683</v>
       </c>
       <c r="K25" t="n">
-        <v>27.41655747915804</v>
+        <v>27.41655747915803</v>
       </c>
       <c r="L25" t="n">
-        <v>35.08375438295389</v>
+        <v>35.08375438295388</v>
       </c>
       <c r="M25" t="n">
-        <v>36.9908998914806</v>
+        <v>36.99089989148059</v>
       </c>
       <c r="N25" t="n">
-        <v>36.11133897078777</v>
+        <v>36.11133897078776</v>
       </c>
       <c r="O25" t="n">
-        <v>33.35466632910403</v>
+        <v>33.35466632910402</v>
       </c>
       <c r="P25" t="n">
-        <v>28.54067924121428</v>
+        <v>28.54067924121427</v>
       </c>
       <c r="Q25" t="n">
         <v>19.76008692805358</v>
@@ -32892,7 +32892,7 @@
         <v>10.61050808230952</v>
       </c>
       <c r="S25" t="n">
-        <v>4.112483621873706</v>
+        <v>4.112483621873705</v>
       </c>
       <c r="T25" t="n">
         <v>1.00827715298938</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5260763933056958</v>
+        <v>0.5260763933056957</v>
       </c>
       <c r="H26" t="n">
-        <v>5.387679862941959</v>
+        <v>5.387679862941957</v>
       </c>
       <c r="I26" t="n">
         <v>20.28156015291786</v>
       </c>
       <c r="J26" t="n">
-        <v>44.65007628632934</v>
+        <v>44.65007628632933</v>
       </c>
       <c r="K26" t="n">
-        <v>66.91889001495946</v>
+        <v>66.91889001495944</v>
       </c>
       <c r="L26" t="n">
-        <v>83.01880043658866</v>
+        <v>83.01880043658865</v>
       </c>
       <c r="M26" t="n">
-        <v>92.37441149603883</v>
+        <v>92.3744114960388</v>
       </c>
       <c r="N26" t="n">
-        <v>93.86912604851865</v>
+        <v>93.86912604851862</v>
       </c>
       <c r="O26" t="n">
-        <v>88.63795391258513</v>
+        <v>88.6379539125851</v>
       </c>
       <c r="P26" t="n">
-        <v>75.65044295285075</v>
+        <v>75.65044295285074</v>
       </c>
       <c r="Q26" t="n">
-        <v>56.8103321175905</v>
+        <v>56.81033211759048</v>
       </c>
       <c r="R26" t="n">
-        <v>33.04614624098895</v>
+        <v>33.04614624098894</v>
       </c>
       <c r="S26" t="n">
-        <v>11.98796581245356</v>
+        <v>11.98796581245355</v>
       </c>
       <c r="T26" t="n">
-        <v>2.302899411695685</v>
+        <v>2.302899411695684</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04208611146445566</v>
+        <v>0.04208611146445565</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33017,40 +33017,40 @@
         <v>0.28147568534276</v>
       </c>
       <c r="H27" t="n">
-        <v>2.718462540020867</v>
+        <v>2.718462540020866</v>
       </c>
       <c r="I27" t="n">
-        <v>9.691158464652046</v>
+        <v>9.691158464652043</v>
       </c>
       <c r="J27" t="n">
-        <v>26.59327955249296</v>
+        <v>26.59327955249295</v>
       </c>
       <c r="K27" t="n">
-        <v>45.45215047045788</v>
+        <v>45.45215047045787</v>
       </c>
       <c r="L27" t="n">
-        <v>61.11602545128656</v>
+        <v>61.11602545128655</v>
       </c>
       <c r="M27" t="n">
-        <v>71.3195190449616</v>
+        <v>71.31951904496158</v>
       </c>
       <c r="N27" t="n">
-        <v>73.2071344962295</v>
+        <v>73.20713449622949</v>
       </c>
       <c r="O27" t="n">
-        <v>66.97022588942413</v>
+        <v>66.97022588942411</v>
       </c>
       <c r="P27" t="n">
-        <v>53.74951047567144</v>
+        <v>53.74951047567142</v>
       </c>
       <c r="Q27" t="n">
-        <v>35.93012432550741</v>
+        <v>35.9301243255074</v>
       </c>
       <c r="R27" t="n">
         <v>17.4761833408426</v>
       </c>
       <c r="S27" t="n">
-        <v>5.228287400993807</v>
+        <v>5.228287400993805</v>
       </c>
       <c r="T27" t="n">
         <v>1.134544538728054</v>
@@ -33096,31 +33096,31 @@
         <v>0.2359797592102805</v>
       </c>
       <c r="H28" t="n">
-        <v>2.098074586433223</v>
+        <v>2.098074586433222</v>
       </c>
       <c r="I28" t="n">
-        <v>7.09655494061462</v>
+        <v>7.096554940614618</v>
       </c>
       <c r="J28" t="n">
         <v>16.68376897616683</v>
       </c>
       <c r="K28" t="n">
-        <v>27.41655747915804</v>
+        <v>27.41655747915803</v>
       </c>
       <c r="L28" t="n">
-        <v>35.08375438295389</v>
+        <v>35.08375438295388</v>
       </c>
       <c r="M28" t="n">
-        <v>36.9908998914806</v>
+        <v>36.99089989148059</v>
       </c>
       <c r="N28" t="n">
-        <v>36.11133897078777</v>
+        <v>36.11133897078776</v>
       </c>
       <c r="O28" t="n">
-        <v>33.35466632910403</v>
+        <v>33.35466632910402</v>
       </c>
       <c r="P28" t="n">
-        <v>28.54067924121428</v>
+        <v>28.54067924121427</v>
       </c>
       <c r="Q28" t="n">
         <v>19.76008692805358</v>
@@ -33129,7 +33129,7 @@
         <v>10.61050808230952</v>
       </c>
       <c r="S28" t="n">
-        <v>4.112483621873706</v>
+        <v>4.112483621873705</v>
       </c>
       <c r="T28" t="n">
         <v>1.00827715298938</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5260763933056958</v>
+        <v>0.5260763933056957</v>
       </c>
       <c r="H29" t="n">
-        <v>5.387679862941959</v>
+        <v>5.387679862941957</v>
       </c>
       <c r="I29" t="n">
         <v>20.28156015291786</v>
       </c>
       <c r="J29" t="n">
-        <v>44.65007628632934</v>
+        <v>44.65007628632933</v>
       </c>
       <c r="K29" t="n">
-        <v>66.91889001495946</v>
+        <v>66.91889001495944</v>
       </c>
       <c r="L29" t="n">
-        <v>83.01880043658866</v>
+        <v>83.01880043658865</v>
       </c>
       <c r="M29" t="n">
-        <v>92.37441149603883</v>
+        <v>92.3744114960388</v>
       </c>
       <c r="N29" t="n">
-        <v>93.86912604851865</v>
+        <v>93.86912604851862</v>
       </c>
       <c r="O29" t="n">
-        <v>88.63795391258513</v>
+        <v>88.6379539125851</v>
       </c>
       <c r="P29" t="n">
-        <v>75.65044295285075</v>
+        <v>75.65044295285074</v>
       </c>
       <c r="Q29" t="n">
-        <v>56.8103321175905</v>
+        <v>56.81033211759048</v>
       </c>
       <c r="R29" t="n">
-        <v>33.04614624098895</v>
+        <v>33.04614624098894</v>
       </c>
       <c r="S29" t="n">
-        <v>11.98796581245356</v>
+        <v>11.98796581245355</v>
       </c>
       <c r="T29" t="n">
-        <v>2.302899411695685</v>
+        <v>2.302899411695684</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04208611146445566</v>
+        <v>0.04208611146445565</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33254,40 +33254,40 @@
         <v>0.28147568534276</v>
       </c>
       <c r="H30" t="n">
-        <v>2.718462540020867</v>
+        <v>2.718462540020866</v>
       </c>
       <c r="I30" t="n">
-        <v>9.691158464652046</v>
+        <v>9.691158464652043</v>
       </c>
       <c r="J30" t="n">
-        <v>26.59327955249296</v>
+        <v>26.59327955249295</v>
       </c>
       <c r="K30" t="n">
-        <v>45.45215047045788</v>
+        <v>45.45215047045787</v>
       </c>
       <c r="L30" t="n">
-        <v>61.11602545128656</v>
+        <v>61.11602545128655</v>
       </c>
       <c r="M30" t="n">
-        <v>71.3195190449616</v>
+        <v>71.31951904496158</v>
       </c>
       <c r="N30" t="n">
-        <v>73.2071344962295</v>
+        <v>73.20713449622949</v>
       </c>
       <c r="O30" t="n">
-        <v>66.97022588942413</v>
+        <v>66.97022588942411</v>
       </c>
       <c r="P30" t="n">
-        <v>53.74951047567144</v>
+        <v>53.74951047567142</v>
       </c>
       <c r="Q30" t="n">
-        <v>35.93012432550741</v>
+        <v>35.9301243255074</v>
       </c>
       <c r="R30" t="n">
         <v>17.4761833408426</v>
       </c>
       <c r="S30" t="n">
-        <v>5.228287400993807</v>
+        <v>5.228287400993805</v>
       </c>
       <c r="T30" t="n">
         <v>1.134544538728054</v>
@@ -33333,31 +33333,31 @@
         <v>0.2359797592102805</v>
       </c>
       <c r="H31" t="n">
-        <v>2.098074586433223</v>
+        <v>2.098074586433222</v>
       </c>
       <c r="I31" t="n">
-        <v>7.09655494061462</v>
+        <v>7.096554940614618</v>
       </c>
       <c r="J31" t="n">
         <v>16.68376897616683</v>
       </c>
       <c r="K31" t="n">
-        <v>27.41655747915804</v>
+        <v>27.41655747915803</v>
       </c>
       <c r="L31" t="n">
-        <v>35.08375438295389</v>
+        <v>35.08375438295388</v>
       </c>
       <c r="M31" t="n">
-        <v>36.9908998914806</v>
+        <v>36.99089989148059</v>
       </c>
       <c r="N31" t="n">
-        <v>36.11133897078777</v>
+        <v>36.11133897078776</v>
       </c>
       <c r="O31" t="n">
-        <v>33.35466632910403</v>
+        <v>33.35466632910402</v>
       </c>
       <c r="P31" t="n">
-        <v>28.54067924121428</v>
+        <v>28.54067924121427</v>
       </c>
       <c r="Q31" t="n">
         <v>19.76008692805358</v>
@@ -33366,7 +33366,7 @@
         <v>10.61050808230952</v>
       </c>
       <c r="S31" t="n">
-        <v>4.112483621873706</v>
+        <v>4.112483621873705</v>
       </c>
       <c r="T31" t="n">
         <v>1.00827715298938</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5260763933056958</v>
+        <v>0.5260763933056957</v>
       </c>
       <c r="H32" t="n">
-        <v>5.387679862941959</v>
+        <v>5.387679862941957</v>
       </c>
       <c r="I32" t="n">
         <v>20.28156015291786</v>
       </c>
       <c r="J32" t="n">
-        <v>44.65007628632934</v>
+        <v>44.65007628632933</v>
       </c>
       <c r="K32" t="n">
-        <v>66.91889001495946</v>
+        <v>66.91889001495944</v>
       </c>
       <c r="L32" t="n">
-        <v>83.01880043658866</v>
+        <v>83.01880043658865</v>
       </c>
       <c r="M32" t="n">
-        <v>92.37441149603883</v>
+        <v>92.3744114960388</v>
       </c>
       <c r="N32" t="n">
-        <v>93.86912604851865</v>
+        <v>93.86912604851862</v>
       </c>
       <c r="O32" t="n">
-        <v>88.63795391258513</v>
+        <v>88.6379539125851</v>
       </c>
       <c r="P32" t="n">
-        <v>75.65044295285075</v>
+        <v>75.65044295285074</v>
       </c>
       <c r="Q32" t="n">
-        <v>56.8103321175905</v>
+        <v>56.81033211759048</v>
       </c>
       <c r="R32" t="n">
-        <v>33.04614624098895</v>
+        <v>33.04614624098894</v>
       </c>
       <c r="S32" t="n">
-        <v>11.98796581245356</v>
+        <v>11.98796581245355</v>
       </c>
       <c r="T32" t="n">
-        <v>2.302899411695685</v>
+        <v>2.302899411695684</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04208611146445566</v>
+        <v>0.04208611146445565</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33491,40 +33491,40 @@
         <v>0.28147568534276</v>
       </c>
       <c r="H33" t="n">
-        <v>2.718462540020867</v>
+        <v>2.718462540020866</v>
       </c>
       <c r="I33" t="n">
-        <v>9.691158464652046</v>
+        <v>9.691158464652043</v>
       </c>
       <c r="J33" t="n">
-        <v>26.59327955249296</v>
+        <v>26.59327955249295</v>
       </c>
       <c r="K33" t="n">
-        <v>45.45215047045788</v>
+        <v>45.45215047045787</v>
       </c>
       <c r="L33" t="n">
-        <v>61.11602545128656</v>
+        <v>61.11602545128655</v>
       </c>
       <c r="M33" t="n">
-        <v>71.3195190449616</v>
+        <v>71.31951904496158</v>
       </c>
       <c r="N33" t="n">
-        <v>73.2071344962295</v>
+        <v>73.20713449622949</v>
       </c>
       <c r="O33" t="n">
-        <v>66.97022588942413</v>
+        <v>66.97022588942411</v>
       </c>
       <c r="P33" t="n">
-        <v>53.74951047567144</v>
+        <v>53.74951047567142</v>
       </c>
       <c r="Q33" t="n">
-        <v>35.93012432550741</v>
+        <v>35.9301243255074</v>
       </c>
       <c r="R33" t="n">
         <v>17.4761833408426</v>
       </c>
       <c r="S33" t="n">
-        <v>5.228287400993807</v>
+        <v>5.228287400993805</v>
       </c>
       <c r="T33" t="n">
         <v>1.134544538728054</v>
@@ -33570,31 +33570,31 @@
         <v>0.2359797592102805</v>
       </c>
       <c r="H34" t="n">
-        <v>2.098074586433223</v>
+        <v>2.098074586433222</v>
       </c>
       <c r="I34" t="n">
-        <v>7.09655494061462</v>
+        <v>7.096554940614618</v>
       </c>
       <c r="J34" t="n">
         <v>16.68376897616683</v>
       </c>
       <c r="K34" t="n">
-        <v>27.41655747915804</v>
+        <v>27.41655747915803</v>
       </c>
       <c r="L34" t="n">
-        <v>35.08375438295389</v>
+        <v>35.08375438295388</v>
       </c>
       <c r="M34" t="n">
-        <v>36.9908998914806</v>
+        <v>36.99089989148059</v>
       </c>
       <c r="N34" t="n">
-        <v>36.11133897078777</v>
+        <v>36.11133897078776</v>
       </c>
       <c r="O34" t="n">
-        <v>33.35466632910403</v>
+        <v>33.35466632910402</v>
       </c>
       <c r="P34" t="n">
-        <v>28.54067924121428</v>
+        <v>28.54067924121427</v>
       </c>
       <c r="Q34" t="n">
         <v>19.76008692805358</v>
@@ -33603,7 +33603,7 @@
         <v>10.61050808230952</v>
       </c>
       <c r="S34" t="n">
-        <v>4.112483621873706</v>
+        <v>4.112483621873705</v>
       </c>
       <c r="T34" t="n">
         <v>1.00827715298938</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5260763933056958</v>
+        <v>0.5260763933056957</v>
       </c>
       <c r="H35" t="n">
-        <v>5.387679862941959</v>
+        <v>5.387679862941957</v>
       </c>
       <c r="I35" t="n">
         <v>20.28156015291786</v>
       </c>
       <c r="J35" t="n">
-        <v>44.65007628632934</v>
+        <v>44.65007628632933</v>
       </c>
       <c r="K35" t="n">
-        <v>66.91889001495946</v>
+        <v>66.91889001495944</v>
       </c>
       <c r="L35" t="n">
-        <v>83.01880043658866</v>
+        <v>83.01880043658865</v>
       </c>
       <c r="M35" t="n">
-        <v>92.37441149603883</v>
+        <v>92.3744114960388</v>
       </c>
       <c r="N35" t="n">
-        <v>93.86912604851865</v>
+        <v>93.86912604851862</v>
       </c>
       <c r="O35" t="n">
-        <v>88.63795391258513</v>
+        <v>88.6379539125851</v>
       </c>
       <c r="P35" t="n">
-        <v>75.65044295285075</v>
+        <v>75.65044295285074</v>
       </c>
       <c r="Q35" t="n">
-        <v>56.8103321175905</v>
+        <v>56.81033211759048</v>
       </c>
       <c r="R35" t="n">
-        <v>33.04614624098895</v>
+        <v>33.04614624098894</v>
       </c>
       <c r="S35" t="n">
-        <v>11.98796581245356</v>
+        <v>11.98796581245355</v>
       </c>
       <c r="T35" t="n">
-        <v>2.302899411695685</v>
+        <v>2.302899411695684</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04208611146445566</v>
+        <v>0.04208611146445565</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33728,40 +33728,40 @@
         <v>0.28147568534276</v>
       </c>
       <c r="H36" t="n">
-        <v>2.718462540020867</v>
+        <v>2.718462540020866</v>
       </c>
       <c r="I36" t="n">
-        <v>9.691158464652046</v>
+        <v>9.691158464652043</v>
       </c>
       <c r="J36" t="n">
-        <v>26.59327955249296</v>
+        <v>26.59327955249295</v>
       </c>
       <c r="K36" t="n">
-        <v>45.45215047045788</v>
+        <v>45.45215047045787</v>
       </c>
       <c r="L36" t="n">
-        <v>61.11602545128656</v>
+        <v>61.11602545128655</v>
       </c>
       <c r="M36" t="n">
-        <v>71.3195190449616</v>
+        <v>71.31951904496158</v>
       </c>
       <c r="N36" t="n">
-        <v>73.2071344962295</v>
+        <v>73.20713449622949</v>
       </c>
       <c r="O36" t="n">
-        <v>66.97022588942413</v>
+        <v>66.97022588942411</v>
       </c>
       <c r="P36" t="n">
-        <v>53.74951047567144</v>
+        <v>53.74951047567142</v>
       </c>
       <c r="Q36" t="n">
-        <v>35.93012432550741</v>
+        <v>35.9301243255074</v>
       </c>
       <c r="R36" t="n">
         <v>17.4761833408426</v>
       </c>
       <c r="S36" t="n">
-        <v>5.228287400993807</v>
+        <v>5.228287400993805</v>
       </c>
       <c r="T36" t="n">
         <v>1.134544538728054</v>
@@ -33807,31 +33807,31 @@
         <v>0.2359797592102805</v>
       </c>
       <c r="H37" t="n">
-        <v>2.098074586433223</v>
+        <v>2.098074586433222</v>
       </c>
       <c r="I37" t="n">
-        <v>7.09655494061462</v>
+        <v>7.096554940614618</v>
       </c>
       <c r="J37" t="n">
         <v>16.68376897616683</v>
       </c>
       <c r="K37" t="n">
-        <v>27.41655747915804</v>
+        <v>27.41655747915803</v>
       </c>
       <c r="L37" t="n">
-        <v>35.08375438295389</v>
+        <v>35.08375438295388</v>
       </c>
       <c r="M37" t="n">
-        <v>36.9908998914806</v>
+        <v>36.99089989148059</v>
       </c>
       <c r="N37" t="n">
-        <v>36.11133897078777</v>
+        <v>36.11133897078776</v>
       </c>
       <c r="O37" t="n">
-        <v>33.35466632910403</v>
+        <v>33.35466632910402</v>
       </c>
       <c r="P37" t="n">
-        <v>28.54067924121428</v>
+        <v>28.54067924121427</v>
       </c>
       <c r="Q37" t="n">
         <v>19.76008692805358</v>
@@ -33840,7 +33840,7 @@
         <v>10.61050808230952</v>
       </c>
       <c r="S37" t="n">
-        <v>4.112483621873706</v>
+        <v>4.112483621873705</v>
       </c>
       <c r="T37" t="n">
         <v>1.00827715298938</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5260763933056958</v>
+        <v>0.5260763933056957</v>
       </c>
       <c r="H38" t="n">
-        <v>5.387679862941959</v>
+        <v>5.387679862941957</v>
       </c>
       <c r="I38" t="n">
         <v>20.28156015291786</v>
       </c>
       <c r="J38" t="n">
-        <v>44.65007628632934</v>
+        <v>44.65007628632933</v>
       </c>
       <c r="K38" t="n">
-        <v>66.91889001495946</v>
+        <v>66.91889001495944</v>
       </c>
       <c r="L38" t="n">
-        <v>83.01880043658866</v>
+        <v>83.01880043658865</v>
       </c>
       <c r="M38" t="n">
-        <v>92.37441149603883</v>
+        <v>92.3744114960388</v>
       </c>
       <c r="N38" t="n">
-        <v>93.86912604851865</v>
+        <v>93.86912604851862</v>
       </c>
       <c r="O38" t="n">
-        <v>88.63795391258513</v>
+        <v>88.6379539125851</v>
       </c>
       <c r="P38" t="n">
-        <v>75.65044295285075</v>
+        <v>75.65044295285074</v>
       </c>
       <c r="Q38" t="n">
-        <v>56.8103321175905</v>
+        <v>56.81033211759048</v>
       </c>
       <c r="R38" t="n">
-        <v>33.04614624098895</v>
+        <v>33.04614624098894</v>
       </c>
       <c r="S38" t="n">
-        <v>11.98796581245356</v>
+        <v>11.98796581245355</v>
       </c>
       <c r="T38" t="n">
-        <v>2.302899411695685</v>
+        <v>2.302899411695684</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04208611146445566</v>
+        <v>0.04208611146445565</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33965,40 +33965,40 @@
         <v>0.28147568534276</v>
       </c>
       <c r="H39" t="n">
-        <v>2.718462540020867</v>
+        <v>2.718462540020866</v>
       </c>
       <c r="I39" t="n">
-        <v>9.691158464652046</v>
+        <v>9.691158464652043</v>
       </c>
       <c r="J39" t="n">
-        <v>26.59327955249296</v>
+        <v>26.59327955249295</v>
       </c>
       <c r="K39" t="n">
-        <v>45.45215047045788</v>
+        <v>45.45215047045787</v>
       </c>
       <c r="L39" t="n">
-        <v>61.11602545128656</v>
+        <v>61.11602545128655</v>
       </c>
       <c r="M39" t="n">
-        <v>71.3195190449616</v>
+        <v>71.31951904496158</v>
       </c>
       <c r="N39" t="n">
-        <v>73.2071344962295</v>
+        <v>73.20713449622949</v>
       </c>
       <c r="O39" t="n">
-        <v>66.97022588942413</v>
+        <v>66.97022588942411</v>
       </c>
       <c r="P39" t="n">
-        <v>53.74951047567144</v>
+        <v>53.74951047567142</v>
       </c>
       <c r="Q39" t="n">
-        <v>35.93012432550741</v>
+        <v>35.9301243255074</v>
       </c>
       <c r="R39" t="n">
         <v>17.4761833408426</v>
       </c>
       <c r="S39" t="n">
-        <v>5.228287400993807</v>
+        <v>5.228287400993805</v>
       </c>
       <c r="T39" t="n">
         <v>1.134544538728054</v>
@@ -34044,31 +34044,31 @@
         <v>0.2359797592102805</v>
       </c>
       <c r="H40" t="n">
-        <v>2.098074586433223</v>
+        <v>2.098074586433222</v>
       </c>
       <c r="I40" t="n">
-        <v>7.09655494061462</v>
+        <v>7.096554940614618</v>
       </c>
       <c r="J40" t="n">
         <v>16.68376897616683</v>
       </c>
       <c r="K40" t="n">
-        <v>27.41655747915804</v>
+        <v>27.41655747915803</v>
       </c>
       <c r="L40" t="n">
-        <v>35.08375438295389</v>
+        <v>35.08375438295388</v>
       </c>
       <c r="M40" t="n">
-        <v>36.9908998914806</v>
+        <v>36.99089989148059</v>
       </c>
       <c r="N40" t="n">
-        <v>36.11133897078777</v>
+        <v>36.11133897078776</v>
       </c>
       <c r="O40" t="n">
-        <v>33.35466632910403</v>
+        <v>33.35466632910402</v>
       </c>
       <c r="P40" t="n">
-        <v>28.54067924121428</v>
+        <v>28.54067924121427</v>
       </c>
       <c r="Q40" t="n">
         <v>19.76008692805358</v>
@@ -34077,7 +34077,7 @@
         <v>10.61050808230952</v>
       </c>
       <c r="S40" t="n">
-        <v>4.112483621873706</v>
+        <v>4.112483621873705</v>
       </c>
       <c r="T40" t="n">
         <v>1.00827715298938</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5260763933056958</v>
+        <v>0.5260763933056957</v>
       </c>
       <c r="H41" t="n">
-        <v>5.387679862941959</v>
+        <v>5.387679862941957</v>
       </c>
       <c r="I41" t="n">
         <v>20.28156015291786</v>
       </c>
       <c r="J41" t="n">
-        <v>44.65007628632934</v>
+        <v>44.65007628632933</v>
       </c>
       <c r="K41" t="n">
-        <v>66.91889001495946</v>
+        <v>66.91889001495944</v>
       </c>
       <c r="L41" t="n">
-        <v>83.01880043658866</v>
+        <v>83.01880043658865</v>
       </c>
       <c r="M41" t="n">
-        <v>92.37441149603883</v>
+        <v>92.3744114960388</v>
       </c>
       <c r="N41" t="n">
-        <v>93.86912604851865</v>
+        <v>93.86912604851862</v>
       </c>
       <c r="O41" t="n">
-        <v>88.63795391258513</v>
+        <v>88.6379539125851</v>
       </c>
       <c r="P41" t="n">
-        <v>75.65044295285075</v>
+        <v>75.65044295285074</v>
       </c>
       <c r="Q41" t="n">
-        <v>56.8103321175905</v>
+        <v>56.81033211759048</v>
       </c>
       <c r="R41" t="n">
-        <v>33.04614624098895</v>
+        <v>33.04614624098894</v>
       </c>
       <c r="S41" t="n">
-        <v>11.98796581245356</v>
+        <v>11.98796581245355</v>
       </c>
       <c r="T41" t="n">
-        <v>2.302899411695685</v>
+        <v>2.302899411695684</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04208611146445566</v>
+        <v>0.04208611146445565</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34202,40 +34202,40 @@
         <v>0.28147568534276</v>
       </c>
       <c r="H42" t="n">
-        <v>2.718462540020867</v>
+        <v>2.718462540020866</v>
       </c>
       <c r="I42" t="n">
-        <v>9.691158464652046</v>
+        <v>9.691158464652043</v>
       </c>
       <c r="J42" t="n">
-        <v>26.59327955249296</v>
+        <v>26.59327955249295</v>
       </c>
       <c r="K42" t="n">
-        <v>45.45215047045788</v>
+        <v>45.45215047045787</v>
       </c>
       <c r="L42" t="n">
-        <v>61.11602545128656</v>
+        <v>61.11602545128655</v>
       </c>
       <c r="M42" t="n">
-        <v>71.3195190449616</v>
+        <v>71.31951904496158</v>
       </c>
       <c r="N42" t="n">
-        <v>73.2071344962295</v>
+        <v>73.20713449622949</v>
       </c>
       <c r="O42" t="n">
-        <v>66.97022588942413</v>
+        <v>66.97022588942411</v>
       </c>
       <c r="P42" t="n">
-        <v>53.74951047567144</v>
+        <v>53.74951047567142</v>
       </c>
       <c r="Q42" t="n">
-        <v>35.93012432550741</v>
+        <v>35.9301243255074</v>
       </c>
       <c r="R42" t="n">
         <v>17.4761833408426</v>
       </c>
       <c r="S42" t="n">
-        <v>5.228287400993807</v>
+        <v>5.228287400993805</v>
       </c>
       <c r="T42" t="n">
         <v>1.134544538728054</v>
@@ -34281,31 +34281,31 @@
         <v>0.2359797592102805</v>
       </c>
       <c r="H43" t="n">
-        <v>2.098074586433223</v>
+        <v>2.098074586433222</v>
       </c>
       <c r="I43" t="n">
-        <v>7.09655494061462</v>
+        <v>7.096554940614618</v>
       </c>
       <c r="J43" t="n">
         <v>16.68376897616683</v>
       </c>
       <c r="K43" t="n">
-        <v>27.41655747915804</v>
+        <v>27.41655747915803</v>
       </c>
       <c r="L43" t="n">
-        <v>35.08375438295389</v>
+        <v>35.08375438295388</v>
       </c>
       <c r="M43" t="n">
-        <v>36.9908998914806</v>
+        <v>36.99089989148059</v>
       </c>
       <c r="N43" t="n">
-        <v>36.11133897078777</v>
+        <v>36.11133897078776</v>
       </c>
       <c r="O43" t="n">
-        <v>33.35466632910403</v>
+        <v>33.35466632910402</v>
       </c>
       <c r="P43" t="n">
-        <v>28.54067924121428</v>
+        <v>28.54067924121427</v>
       </c>
       <c r="Q43" t="n">
         <v>19.76008692805358</v>
@@ -34314,7 +34314,7 @@
         <v>10.61050808230952</v>
       </c>
       <c r="S43" t="n">
-        <v>4.112483621873706</v>
+        <v>4.112483621873705</v>
       </c>
       <c r="T43" t="n">
         <v>1.00827715298938</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5260763933056958</v>
+        <v>0.5260763933056957</v>
       </c>
       <c r="H44" t="n">
-        <v>5.387679862941959</v>
+        <v>5.387679862941957</v>
       </c>
       <c r="I44" t="n">
         <v>20.28156015291786</v>
       </c>
       <c r="J44" t="n">
-        <v>44.65007628632934</v>
+        <v>44.65007628632933</v>
       </c>
       <c r="K44" t="n">
-        <v>66.91889001495946</v>
+        <v>66.91889001495944</v>
       </c>
       <c r="L44" t="n">
-        <v>83.01880043658866</v>
+        <v>83.01880043658865</v>
       </c>
       <c r="M44" t="n">
-        <v>92.37441149603883</v>
+        <v>92.3744114960388</v>
       </c>
       <c r="N44" t="n">
-        <v>93.86912604851865</v>
+        <v>93.86912604851862</v>
       </c>
       <c r="O44" t="n">
-        <v>88.63795391258513</v>
+        <v>88.6379539125851</v>
       </c>
       <c r="P44" t="n">
-        <v>75.65044295285075</v>
+        <v>75.65044295285074</v>
       </c>
       <c r="Q44" t="n">
-        <v>56.8103321175905</v>
+        <v>56.81033211759048</v>
       </c>
       <c r="R44" t="n">
-        <v>33.04614624098895</v>
+        <v>33.04614624098894</v>
       </c>
       <c r="S44" t="n">
-        <v>11.98796581245356</v>
+        <v>11.98796581245355</v>
       </c>
       <c r="T44" t="n">
-        <v>2.302899411695685</v>
+        <v>2.302899411695684</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04208611146445566</v>
+        <v>0.04208611146445565</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34439,40 +34439,40 @@
         <v>0.28147568534276</v>
       </c>
       <c r="H45" t="n">
-        <v>2.718462540020867</v>
+        <v>2.718462540020866</v>
       </c>
       <c r="I45" t="n">
-        <v>9.691158464652046</v>
+        <v>9.691158464652043</v>
       </c>
       <c r="J45" t="n">
-        <v>26.59327955249296</v>
+        <v>26.59327955249295</v>
       </c>
       <c r="K45" t="n">
-        <v>45.45215047045788</v>
+        <v>45.45215047045787</v>
       </c>
       <c r="L45" t="n">
-        <v>61.11602545128656</v>
+        <v>61.11602545128655</v>
       </c>
       <c r="M45" t="n">
-        <v>71.3195190449616</v>
+        <v>71.31951904496158</v>
       </c>
       <c r="N45" t="n">
-        <v>73.2071344962295</v>
+        <v>73.20713449622949</v>
       </c>
       <c r="O45" t="n">
-        <v>66.97022588942413</v>
+        <v>66.97022588942411</v>
       </c>
       <c r="P45" t="n">
-        <v>53.74951047567144</v>
+        <v>53.74951047567142</v>
       </c>
       <c r="Q45" t="n">
-        <v>35.93012432550741</v>
+        <v>35.9301243255074</v>
       </c>
       <c r="R45" t="n">
         <v>17.4761833408426</v>
       </c>
       <c r="S45" t="n">
-        <v>5.228287400993807</v>
+        <v>5.228287400993805</v>
       </c>
       <c r="T45" t="n">
         <v>1.134544538728054</v>
@@ -34518,31 +34518,31 @@
         <v>0.2359797592102805</v>
       </c>
       <c r="H46" t="n">
-        <v>2.098074586433223</v>
+        <v>2.098074586433222</v>
       </c>
       <c r="I46" t="n">
-        <v>7.09655494061462</v>
+        <v>7.096554940614618</v>
       </c>
       <c r="J46" t="n">
         <v>16.68376897616683</v>
       </c>
       <c r="K46" t="n">
-        <v>27.41655747915804</v>
+        <v>27.41655747915803</v>
       </c>
       <c r="L46" t="n">
-        <v>35.08375438295389</v>
+        <v>35.08375438295388</v>
       </c>
       <c r="M46" t="n">
-        <v>36.9908998914806</v>
+        <v>36.99089989148059</v>
       </c>
       <c r="N46" t="n">
-        <v>36.11133897078777</v>
+        <v>36.11133897078776</v>
       </c>
       <c r="O46" t="n">
-        <v>33.35466632910403</v>
+        <v>33.35466632910402</v>
       </c>
       <c r="P46" t="n">
-        <v>28.54067924121428</v>
+        <v>28.54067924121427</v>
       </c>
       <c r="Q46" t="n">
         <v>19.76008692805358</v>
@@ -34551,7 +34551,7 @@
         <v>10.61050808230952</v>
       </c>
       <c r="S46" t="n">
-        <v>4.112483621873706</v>
+        <v>4.112483621873705</v>
       </c>
       <c r="T46" t="n">
         <v>1.00827715298938</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>34.06127030651811</v>
       </c>
       <c r="K12" t="n">
         <v>186.1005939635397</v>
@@ -35498,16 +35498,16 @@
         <v>417.0721022709937</v>
       </c>
       <c r="N12" t="n">
-        <v>426.1353503440489</v>
+        <v>28.58066456770342</v>
       </c>
       <c r="O12" t="n">
         <v>337.5556996038895</v>
       </c>
       <c r="P12" t="n">
-        <v>8.760600999326154</v>
+        <v>254.3257426322341</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>117.9282738369195</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>49.86747605587014</v>
+        <v>49.86747605587016</v>
       </c>
       <c r="K13" t="n">
         <v>134.6646997688069</v>
@@ -35586,7 +35586,7 @@
         <v>156.6852531473804</v>
       </c>
       <c r="Q13" t="n">
-        <v>62.02193905968765</v>
+        <v>62.02193905968767</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35659,7 +35659,7 @@
         <v>325.032190430306</v>
       </c>
       <c r="O14" t="n">
-        <v>260.3243862896956</v>
+        <v>260.3243862896957</v>
       </c>
       <c r="P14" t="n">
         <v>184.8689285898049</v>
@@ -35726,16 +35726,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>134.3066427752191</v>
+        <v>186.1005939635397</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>311.6994642815067</v>
       </c>
       <c r="M15" t="n">
         <v>417.0721022709937</v>
       </c>
       <c r="N15" t="n">
-        <v>426.1353503440489</v>
+        <v>62.64193487422159</v>
       </c>
       <c r="O15" t="n">
         <v>337.5556996038895</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>49.86747605587021</v>
+        <v>49.86747605587016</v>
       </c>
       <c r="K16" t="n">
-        <v>134.664699768807</v>
+        <v>134.6646997688069</v>
       </c>
       <c r="L16" t="n">
-        <v>194.5674366194455</v>
+        <v>194.5674366194454</v>
       </c>
       <c r="M16" t="n">
-        <v>209.2108598958715</v>
+        <v>209.2108598958714</v>
       </c>
       <c r="N16" t="n">
-        <v>212.330910642908</v>
+        <v>212.3309106429079</v>
       </c>
       <c r="O16" t="n">
-        <v>189.9454263665574</v>
+        <v>189.9454263665573</v>
       </c>
       <c r="P16" t="n">
         <v>156.6852531473804</v>
       </c>
       <c r="Q16" t="n">
-        <v>62.02193905968772</v>
+        <v>62.02193905968767</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35890,7 +35890,7 @@
         <v>287.5142089733195</v>
       </c>
       <c r="M17" t="n">
-        <v>335.2809089319937</v>
+        <v>335.2809089319936</v>
       </c>
       <c r="N17" t="n">
         <v>325.032190430306</v>
@@ -35960,16 +35960,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>34.06127030651811</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>186.1005939635397</v>
       </c>
       <c r="L18" t="n">
         <v>311.6994642815067</v>
       </c>
       <c r="M18" t="n">
-        <v>417.0721022709937</v>
+        <v>19.51741649464828</v>
       </c>
       <c r="N18" t="n">
         <v>426.1353503440489</v>
@@ -35978,10 +35978,10 @@
         <v>337.5556996038895</v>
       </c>
       <c r="P18" t="n">
-        <v>194.8611949628657</v>
+        <v>254.3257426322341</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>117.9282738369195</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>43.99079915176693</v>
+        <v>43.99079915176691</v>
       </c>
       <c r="K20" t="n">
         <v>189.4425143201148</v>
@@ -36130,7 +36130,7 @@
         <v>335.2809089319937</v>
       </c>
       <c r="N20" t="n">
-        <v>325.032190430306</v>
+        <v>325.0321904303059</v>
       </c>
       <c r="O20" t="n">
         <v>260.3243862896957</v>
@@ -36139,7 +36139,7 @@
         <v>184.8689285898049</v>
       </c>
       <c r="Q20" t="n">
-        <v>60.86987477630318</v>
+        <v>60.8698747763031</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,22 +36197,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>34.06127030651811</v>
+        <v>34.0612703065181</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>186.1005939635396</v>
       </c>
       <c r="L21" t="n">
         <v>311.6994642815067</v>
       </c>
       <c r="M21" t="n">
-        <v>417.0721022709937</v>
+        <v>19.51741649464828</v>
       </c>
       <c r="N21" t="n">
         <v>426.1353503440489</v>
       </c>
       <c r="O21" t="n">
-        <v>126.1016077910837</v>
+        <v>337.5556996038895</v>
       </c>
       <c r="P21" t="n">
         <v>254.3257426322341</v>
@@ -36279,13 +36279,13 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>12.64214776132469</v>
+        <v>12.64214776132468</v>
       </c>
       <c r="L22" t="n">
         <v>72.54488461196317</v>
       </c>
       <c r="M22" t="n">
-        <v>87.18830788838918</v>
+        <v>87.18830788838916</v>
       </c>
       <c r="N22" t="n">
         <v>90.30835863542566</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>43.99079915176693</v>
+        <v>43.99079915176691</v>
       </c>
       <c r="K23" t="n">
         <v>189.4425143201148</v>
@@ -36367,16 +36367,16 @@
         <v>335.2809089319937</v>
       </c>
       <c r="N23" t="n">
-        <v>325.032190430306</v>
+        <v>325.0321904303059</v>
       </c>
       <c r="O23" t="n">
         <v>260.3243862896957</v>
       </c>
       <c r="P23" t="n">
-        <v>184.8689285898049</v>
+        <v>184.8689285898045</v>
       </c>
       <c r="Q23" t="n">
-        <v>60.86987477630311</v>
+        <v>60.8698747763031</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36437,25 +36437,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>186.1005939635397</v>
+        <v>186.1005939635396</v>
       </c>
       <c r="L24" t="n">
-        <v>66.1343226485991</v>
+        <v>311.6994642815067</v>
       </c>
       <c r="M24" t="n">
-        <v>417.0721022709937</v>
+        <v>417.0721022709936</v>
       </c>
       <c r="N24" t="n">
-        <v>426.1353503440489</v>
+        <v>426.1353503440488</v>
       </c>
       <c r="O24" t="n">
-        <v>337.5556996038895</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>254.3257426322341</v>
+        <v>228.3880267662961</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>117.9282738369195</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,13 +36516,13 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>12.64214776132469</v>
+        <v>12.64214776132468</v>
       </c>
       <c r="L25" t="n">
         <v>72.54488461196317</v>
       </c>
       <c r="M25" t="n">
-        <v>87.18830788838918</v>
+        <v>87.18830788838916</v>
       </c>
       <c r="N25" t="n">
         <v>90.30835863542566</v>
@@ -36604,7 +36604,7 @@
         <v>477.3925035510563</v>
       </c>
       <c r="N26" t="n">
-        <v>467.1437850493686</v>
+        <v>467.1437850493685</v>
       </c>
       <c r="O26" t="n">
         <v>402.4359809087583</v>
@@ -36616,7 +36616,7 @@
         <v>202.9814693953657</v>
       </c>
       <c r="R26" t="n">
-        <v>33.30691815917447</v>
+        <v>33.30691815917444</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,16 +36671,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>34.06127030651811</v>
+        <v>34.0612703065181</v>
       </c>
       <c r="K27" t="n">
-        <v>186.1005939635397</v>
+        <v>186.1005939635396</v>
       </c>
       <c r="L27" t="n">
         <v>311.6994642815067</v>
       </c>
       <c r="M27" t="n">
-        <v>417.0721022709937</v>
+        <v>417.0721022709936</v>
       </c>
       <c r="N27" t="n">
         <v>443.6650345322752</v>
@@ -36753,25 +36753,25 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>12.64214776132469</v>
+        <v>12.64214776132468</v>
       </c>
       <c r="L28" t="n">
-        <v>214.6564792310258</v>
+        <v>84.38504655702145</v>
       </c>
       <c r="M28" t="n">
-        <v>229.2999025074518</v>
+        <v>229.2999025074517</v>
       </c>
       <c r="N28" t="n">
-        <v>90.30835863542566</v>
+        <v>232.4199532544882</v>
       </c>
       <c r="O28" t="n">
-        <v>161.874017975401</v>
+        <v>210.0344689781377</v>
       </c>
       <c r="P28" t="n">
-        <v>176.7742957589607</v>
+        <v>34.66270113989812</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>82.11098167126798</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36841,7 +36841,7 @@
         <v>477.3925035510563</v>
       </c>
       <c r="N29" t="n">
-        <v>467.1437850493686</v>
+        <v>467.1437850493685</v>
       </c>
       <c r="O29" t="n">
         <v>402.4359809087583</v>
@@ -36908,16 +36908,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>34.06127030651811</v>
+        <v>34.0612703065181</v>
       </c>
       <c r="K30" t="n">
-        <v>186.1005939635397</v>
+        <v>186.1005939635396</v>
       </c>
       <c r="L30" t="n">
         <v>311.6994642815067</v>
       </c>
       <c r="M30" t="n">
-        <v>417.0721022709937</v>
+        <v>417.0721022709936</v>
       </c>
       <c r="N30" t="n">
         <v>443.6650345322752</v>
@@ -36987,16 +36987,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>11.84016194505839</v>
+        <v>69.95651866745047</v>
       </c>
       <c r="K31" t="n">
-        <v>154.7537423803873</v>
+        <v>12.64214776132468</v>
       </c>
       <c r="L31" t="n">
         <v>72.54488461196317</v>
       </c>
       <c r="M31" t="n">
-        <v>87.18830788838918</v>
+        <v>171.1835457850597</v>
       </c>
       <c r="N31" t="n">
         <v>232.4199532544882</v>
@@ -37072,7 +37072,7 @@
         <v>331.5541089391774</v>
       </c>
       <c r="L32" t="n">
-        <v>429.6258035923821</v>
+        <v>429.6258035923814</v>
       </c>
       <c r="M32" t="n">
         <v>477.3925035510563</v>
@@ -37081,7 +37081,7 @@
         <v>467.1437850493686</v>
       </c>
       <c r="O32" t="n">
-        <v>402.4359809087584</v>
+        <v>402.4359809087583</v>
       </c>
       <c r="P32" t="n">
         <v>326.9805232088675</v>
@@ -37090,7 +37090,7 @@
         <v>202.9814693953657</v>
       </c>
       <c r="R32" t="n">
-        <v>33.30691815917496</v>
+        <v>33.30691815917449</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,16 +37145,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>34.06127030651811</v>
+        <v>34.0612703065181</v>
       </c>
       <c r="K33" t="n">
-        <v>186.1005939635397</v>
+        <v>186.1005939635396</v>
       </c>
       <c r="L33" t="n">
         <v>311.6994642815067</v>
       </c>
       <c r="M33" t="n">
-        <v>417.0721022709937</v>
+        <v>417.0721022709936</v>
       </c>
       <c r="N33" t="n">
         <v>443.6650345322752</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>69.9565186674505</v>
+        <v>69.95651866745052</v>
       </c>
       <c r="K34" t="n">
-        <v>154.7537423803873</v>
+        <v>96.63738565799386</v>
       </c>
       <c r="L34" t="n">
-        <v>96.53950956083858</v>
+        <v>72.54488461196317</v>
       </c>
       <c r="M34" t="n">
-        <v>229.2999025074518</v>
+        <v>87.18830788838916</v>
       </c>
       <c r="N34" t="n">
-        <v>232.4199532544882</v>
+        <v>90.30835863542566</v>
       </c>
       <c r="O34" t="n">
-        <v>67.92287435907508</v>
+        <v>210.0344689781377</v>
       </c>
       <c r="P34" t="n">
-        <v>34.66270113989812</v>
+        <v>176.7742957589607</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>82.11098167126804</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,10 +37303,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>43.99079915176693</v>
+        <v>43.99079915176691</v>
       </c>
       <c r="K35" t="n">
-        <v>189.4425143201148</v>
+        <v>221.2332051018496</v>
       </c>
       <c r="L35" t="n">
         <v>287.5142089733195</v>
@@ -37315,16 +37315,16 @@
         <v>335.2809089319937</v>
       </c>
       <c r="N35" t="n">
-        <v>325.032190430306</v>
+        <v>325.0321904303059</v>
       </c>
       <c r="O35" t="n">
-        <v>292.1150770714307</v>
+        <v>260.3243862896957</v>
       </c>
       <c r="P35" t="n">
         <v>184.8689285898049</v>
       </c>
       <c r="Q35" t="n">
-        <v>60.86987477630311</v>
+        <v>60.8698747763031</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37385,13 +37385,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>186.1005939635397</v>
+        <v>186.1005939635396</v>
       </c>
       <c r="L36" t="n">
-        <v>311.6994642815067</v>
+        <v>309.5236678008965</v>
       </c>
       <c r="M36" t="n">
-        <v>417.0721022709937</v>
+        <v>417.0721022709936</v>
       </c>
       <c r="N36" t="n">
         <v>434.1641217404565</v>
@@ -37400,7 +37400,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>252.1499461516239</v>
+        <v>254.3257426322341</v>
       </c>
       <c r="Q36" t="n">
         <v>117.9282738369195</v>
@@ -37464,13 +37464,13 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>12.64214776132469</v>
+        <v>12.64214776132468</v>
       </c>
       <c r="L37" t="n">
         <v>72.54488461196317</v>
       </c>
       <c r="M37" t="n">
-        <v>87.18830788838918</v>
+        <v>87.18830788838916</v>
       </c>
       <c r="N37" t="n">
         <v>90.30835863542566</v>
@@ -37540,10 +37540,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>43.99079915176693</v>
+        <v>43.99079915176691</v>
       </c>
       <c r="K38" t="n">
-        <v>221.2332051018496</v>
+        <v>189.4425143201148</v>
       </c>
       <c r="L38" t="n">
         <v>287.5142089733195</v>
@@ -37552,7 +37552,7 @@
         <v>335.2809089319937</v>
       </c>
       <c r="N38" t="n">
-        <v>325.032190430306</v>
+        <v>325.0321904303059</v>
       </c>
       <c r="O38" t="n">
         <v>260.3243862896957</v>
@@ -37561,10 +37561,10 @@
         <v>184.8689285898049</v>
       </c>
       <c r="Q38" t="n">
-        <v>60.86987477630311</v>
+        <v>60.8698747763031</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>31.79069078173506</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,22 +37619,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>34.06127030651811</v>
+        <v>34.0612703065181</v>
       </c>
       <c r="K39" t="n">
-        <v>186.1005939635397</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>311.6994642815067</v>
       </c>
       <c r="M39" t="n">
-        <v>43.2793358799758</v>
+        <v>417.0721022709936</v>
       </c>
       <c r="N39" t="n">
         <v>434.1641217404565</v>
       </c>
       <c r="O39" t="n">
-        <v>337.5556996038895</v>
+        <v>149.8635271764114</v>
       </c>
       <c r="P39" t="n">
         <v>254.3257426322341</v>
@@ -37701,13 +37701,13 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>12.64214776132469</v>
+        <v>12.64214776132468</v>
       </c>
       <c r="L40" t="n">
         <v>72.54488461196317</v>
       </c>
       <c r="M40" t="n">
-        <v>87.18830788838918</v>
+        <v>87.18830788838916</v>
       </c>
       <c r="N40" t="n">
         <v>90.30835863542566</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>43.99079915176693</v>
+        <v>43.99079915176691</v>
       </c>
       <c r="K41" t="n">
-        <v>189.4425143201148</v>
+        <v>383.3195002312005</v>
       </c>
       <c r="L41" t="n">
         <v>287.5142089733195</v>
       </c>
       <c r="M41" t="n">
-        <v>523.8899551658604</v>
+        <v>523.8899551658602</v>
       </c>
       <c r="N41" t="n">
-        <v>325.032190430306</v>
+        <v>325.0321904303059</v>
       </c>
       <c r="O41" t="n">
         <v>260.3243862896957</v>
       </c>
       <c r="P41" t="n">
-        <v>378.7459145008906</v>
+        <v>184.8689285898049</v>
       </c>
       <c r="Q41" t="n">
-        <v>65.45258091569583</v>
+        <v>60.8698747763031</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>4.582706139391497</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,19 +37856,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>6.045638626291142</v>
+        <v>34.0612703065181</v>
       </c>
       <c r="K42" t="n">
-        <v>186.1005939635397</v>
+        <v>186.1005939635396</v>
       </c>
       <c r="L42" t="n">
         <v>311.6994642815067</v>
       </c>
       <c r="M42" t="n">
-        <v>417.0721022709937</v>
+        <v>417.0721022709936</v>
       </c>
       <c r="N42" t="n">
-        <v>443.6650345322752</v>
+        <v>415.6494028520474</v>
       </c>
       <c r="O42" t="n">
         <v>337.5556996038895</v>
@@ -37932,25 +37932,25 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0.3950163117438675</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>12.64214776132469</v>
+        <v>12.64214776132468</v>
       </c>
       <c r="L43" t="n">
         <v>72.54488461196317</v>
       </c>
       <c r="M43" t="n">
-        <v>87.18830788838918</v>
+        <v>87.18830788838916</v>
       </c>
       <c r="N43" t="n">
         <v>90.30835863542566</v>
       </c>
       <c r="O43" t="n">
-        <v>67.92287435907508</v>
+        <v>68.31789067081861</v>
       </c>
       <c r="P43" t="n">
         <v>34.66270113989812</v>
@@ -38011,31 +38011,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>8.93423819587947</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>228.2483133291463</v>
+        <v>43.99079915176691</v>
       </c>
       <c r="K44" t="n">
         <v>189.4425143201148</v>
       </c>
       <c r="L44" t="n">
-        <v>287.5142089733195</v>
+        <v>480.7059613465775</v>
       </c>
       <c r="M44" t="n">
         <v>335.2809089319937</v>
       </c>
       <c r="N44" t="n">
-        <v>518.9091763413916</v>
+        <v>325.0321904303059</v>
       </c>
       <c r="O44" t="n">
-        <v>260.3243862896957</v>
+        <v>454.2013722007814</v>
       </c>
       <c r="P44" t="n">
         <v>184.8689285898049</v>
       </c>
       <c r="Q44" t="n">
-        <v>60.86987477630311</v>
+        <v>60.8698747763031</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>34.06127030651811</v>
+        <v>34.0612703065181</v>
       </c>
       <c r="K45" t="n">
-        <v>186.1005939635397</v>
+        <v>186.1005939635396</v>
       </c>
       <c r="L45" t="n">
         <v>311.6994642815067</v>
       </c>
       <c r="M45" t="n">
-        <v>417.0721022709937</v>
+        <v>417.0721022709936</v>
       </c>
       <c r="N45" t="n">
         <v>443.6650345322752</v>
       </c>
       <c r="O45" t="n">
-        <v>337.5556996038895</v>
+        <v>309.5400679236617</v>
       </c>
       <c r="P45" t="n">
-        <v>226.310110952007</v>
+        <v>254.3257426322341</v>
       </c>
       <c r="Q45" t="n">
         <v>117.9282738369195</v>
@@ -38160,7 +38160,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.395016311744212</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -38175,13 +38175,13 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>12.64214776132469</v>
+        <v>12.64214776132468</v>
       </c>
       <c r="L46" t="n">
         <v>72.54488461196317</v>
       </c>
       <c r="M46" t="n">
-        <v>87.18830788838918</v>
+        <v>87.18830788838916</v>
       </c>
       <c r="N46" t="n">
         <v>90.30835863542566</v>
@@ -38196,7 +38196,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>0.3950163117435589</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
